--- a/fldlfit.xlsx
+++ b/fldlfit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -60,19 +60,19 @@
     <t xml:space="preserve">=~</t>
   </si>
   <si>
-    <t xml:space="preserve">security_freedom_4</t>
+    <t xml:space="preserve">security_freedom_5</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">security_freedom_5</t>
+    <t xml:space="preserve">security_freedom_6</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">security_freedom_6</t>
+    <t xml:space="preserve">security_freedom_7</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
@@ -540,15 +540,15 @@
     <t xml:space="preserve">est.std</t>
   </si>
   <si>
-    <t xml:space="preserve">cov.security_freedom_4</t>
-  </si>
-  <si>
     <t xml:space="preserve">cov.security_freedom_5</t>
   </si>
   <si>
     <t xml:space="preserve">cov.security_freedom_6</t>
   </si>
   <si>
+    <t xml:space="preserve">cov.security_freedom_7</t>
+  </si>
+  <si>
     <t xml:space="preserve">cov.mainstreamlikes</t>
   </si>
   <si>
@@ -591,52 +591,52 @@
     <t xml:space="preserve">mean</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15088754027977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12721881259197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21597603535164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0532544284032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32544324054187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.41420136726864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.71597692574693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90828417827465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9319526764966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02071008253647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1479290028745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84615396497414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63609480950993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42307711668411</t>
+    <t xml:space="preserve">5.12721900310466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21597643312369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45857986936651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0532545560167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32544375840284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.414201047873215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.715976236425216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90828414020403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.931952740457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02071014664882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14792891426444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84615373556599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63609457441638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42307687625353</t>
   </si>
   <si>
     <t xml:space="preserve">0.5</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95266280260044</t>
+    <t xml:space="preserve">2.95266274879621</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
@@ -645,52 +645,52 @@
     <t xml:space="preserve">raw</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0000000336847278958885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000122319275597249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000296009309508349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00000000946662437328882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000546440373838664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000183836687039918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000594385983210266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000154606014213243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0000000137747111494946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0000000233648744796255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00000000879165806821902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000118820298489197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000134953713537556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000193607186727007</t>
+    <t xml:space="preserve">-0.0000000681934153590191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000101762741344658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000122902932275792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000118146878058667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000285794121701599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000135558737901498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000949357310542354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000000116535389338424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0000000777351081282518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0000000874772174697114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000798183985573075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00000011058785531759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00000010013983420265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000468233882777724</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0000000807069455710518</t>
+    <t xml:space="preserve">-0.0000000269027200516803</t>
   </si>
   <si>
     <t xml:space="preserve">fitMeasures.fldl.fit.</t>
@@ -702,25 +702,25 @@
     <t xml:space="preserve">fmin</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142314131747401</t>
+    <t xml:space="preserve">0.108233577741021</t>
   </si>
   <si>
     <t xml:space="preserve">chisq</t>
   </si>
   <si>
-    <t xml:space="preserve">96.2043530612433</t>
+    <t xml:space="preserve">73.1658985529305</t>
   </si>
   <si>
     <t xml:space="preserve">df</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0299696626230465</t>
+    <t xml:space="preserve">0.439531737124448</t>
   </si>
   <si>
     <t xml:space="preserve">baseline.chisq</t>
   </si>
   <si>
-    <t xml:space="preserve">2662.02567648394</t>
+    <t xml:space="preserve">2792.22892476396</t>
   </si>
   <si>
     <t xml:space="preserve">baseline.df</t>
@@ -735,46 +735,52 @@
     <t xml:space="preserve">cfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990478320779701</t>
+    <t xml:space="preserve">0.999563698101564</t>
   </si>
   <si>
     <t xml:space="preserve">tli</t>
   </si>
   <si>
-    <t xml:space="preserve">0.984130534632835</t>
+    <t xml:space="preserve">0.999272830169273</t>
   </si>
   <si>
     <t xml:space="preserve">cfi.robust</t>
   </si>
   <si>
+    <t xml:space="preserve">0.999563698101562</t>
+  </si>
+  <si>
     <t xml:space="preserve">tli.robust</t>
   </si>
   <si>
+    <t xml:space="preserve">0.99927283016927</t>
+  </si>
+  <si>
     <t xml:space="preserve">nnfi</t>
   </si>
   <si>
     <t xml:space="preserve">rfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939767452338331</t>
+    <t xml:space="preserve">0.956327662401394</t>
   </si>
   <si>
     <t xml:space="preserve">nfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.963860471402999</t>
+    <t xml:space="preserve">0.973796597440836</t>
   </si>
   <si>
     <t xml:space="preserve">pnfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.578316282841799</t>
+    <t xml:space="preserve">0.584277958464502</t>
   </si>
   <si>
     <t xml:space="preserve">ifi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990654782583429</t>
+    <t xml:space="preserve">0.999571396898872</t>
   </si>
   <si>
     <t xml:space="preserve">rni</t>
@@ -789,25 +795,25 @@
     <t xml:space="preserve">logl</t>
   </si>
   <si>
-    <t xml:space="preserve">-7521.71405510429</t>
+    <t xml:space="preserve">-7442.29667573548</t>
   </si>
   <si>
     <t xml:space="preserve">unrestricted.logl</t>
   </si>
   <si>
-    <t xml:space="preserve">-7473.61187857367</t>
+    <t xml:space="preserve">-7405.71372645901</t>
   </si>
   <si>
     <t xml:space="preserve">aic</t>
   </si>
   <si>
-    <t xml:space="preserve">15199.4281102086</t>
+    <t xml:space="preserve">15040.593351471</t>
   </si>
   <si>
     <t xml:space="preserve">bic</t>
   </si>
   <si>
-    <t xml:space="preserve">15497.6256900563</t>
+    <t xml:space="preserve">15338.7909313186</t>
   </si>
   <si>
     <t xml:space="preserve">ntotal</t>
@@ -819,25 +825,22 @@
     <t xml:space="preserve">bic2</t>
   </si>
   <si>
-    <t xml:space="preserve">15250.197669615</t>
+    <t xml:space="preserve">15091.3629108774</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0315371280344279</t>
+    <t xml:space="preserve">0.00692158861296491</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.lower</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0104283615196639</t>
-  </si>
-  <si>
     <t xml:space="preserve">rmsea.ci.upper</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0470352899079772</t>
+    <t xml:space="preserve">0.0323861626994825</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.level</t>
@@ -849,7 +852,7 @@
     <t xml:space="preserve">rmsea.pvalue</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977150109344927</t>
+    <t xml:space="preserve">0.999803344841108</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.close.h0</t>
@@ -861,7 +864,7 @@
     <t xml:space="preserve">rmsea.notclose.pvalue</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00000000211412784661903</t>
+    <t xml:space="preserve">0.0000000000000995704774762668</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.notclose.h0</t>
@@ -873,49 +876,43 @@
     <t xml:space="preserve">rmsea.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0315371280344282</t>
+    <t xml:space="preserve">0.00692158861298048</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.lower.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0104283615196649</t>
-  </si>
-  <si>
     <t xml:space="preserve">rmsea.ci.upper.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0470352899079773</t>
+    <t xml:space="preserve">0.0323861626994866</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.pvalue.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977150109344926</t>
-  </si>
-  <si>
     <t xml:space="preserve">rmsea.notclose.pvalue.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00000000211412784661909</t>
+    <t xml:space="preserve">0.0000000000000995704774765148</t>
   </si>
   <si>
     <t xml:space="preserve">rmr</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0655566431549288</t>
+    <t xml:space="preserve">0.0561073375400433</t>
   </si>
   <si>
     <t xml:space="preserve">rmr_nomean</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0693057148025622</t>
+    <t xml:space="preserve">0.0593160196548464</t>
   </si>
   <si>
     <t xml:space="preserve">srmr</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0305959239836793</t>
+    <t xml:space="preserve">0.0274259315114001</t>
   </si>
   <si>
     <t xml:space="preserve">srmr_bentler</t>
@@ -924,73 +921,73 @@
     <t xml:space="preserve">srmr_bentler_nomean</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0323456522433486</t>
+    <t xml:space="preserve">0.0289943733548442</t>
   </si>
   <si>
     <t xml:space="preserve">crmr</t>
   </si>
   <si>
-    <t xml:space="preserve">0.032310662861747</t>
+    <t xml:space="preserve">0.0289679980936192</t>
   </si>
   <si>
     <t xml:space="preserve">crmr_nomean</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0343973273065766</t>
+    <t xml:space="preserve">0.0308387889195542</t>
   </si>
   <si>
     <t xml:space="preserve">srmr_mplus</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0305759362413034</t>
+    <t xml:space="preserve">0.0274149260413437</t>
   </si>
   <si>
     <t xml:space="preserve">srmr_mplus_nomean</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0323169451006739</t>
+    <t xml:space="preserve">0.0289746397059553</t>
   </si>
   <si>
     <t xml:space="preserve">cn_05</t>
   </si>
   <si>
-    <t xml:space="preserve">327.068357525578</t>
+    <t xml:space="preserve">429.740656643435</t>
   </si>
   <si>
     <t xml:space="preserve">cn_01</t>
   </si>
   <si>
-    <t xml:space="preserve">362.230163606076</t>
+    <t xml:space="preserve">475.974200867484</t>
   </si>
   <si>
     <t xml:space="preserve">gfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.994876962164241</t>
+    <t xml:space="preserve">0.99614063023171</t>
   </si>
   <si>
     <t xml:space="preserve">agfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.989184697902286</t>
+    <t xml:space="preserve">0.991852441600277</t>
   </si>
   <si>
     <t xml:space="preserve">pgfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471257508393588</t>
+    <t xml:space="preserve">0.471856088004494</t>
   </si>
   <si>
     <t xml:space="preserve">mfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964828169678241</t>
+    <t xml:space="preserve">0.99827678444244</t>
   </si>
   <si>
     <t xml:space="preserve">ecvi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746166725033264</t>
+    <t xml:space="preserve">0.678005617020505</t>
   </si>
 </sst>
 </file>
@@ -1405,22 +1402,22 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.16842662990189</v>
+        <v>1.11625586266562</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0704367195067707</v>
+        <v>0.0494083666968892</v>
       </c>
       <c r="H3" t="n">
-        <v>16.5883169756305</v>
+        <v>22.5924461238242</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.0422575885838</v>
+        <v>1.02966713374136</v>
       </c>
       <c r="K3" t="n">
-        <v>1.32053727556098</v>
+        <v>1.22365007007336</v>
       </c>
     </row>
     <row r="4">
@@ -1440,22 +1437,22 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.14247471573794</v>
+        <v>0.995594133928396</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0820326540776191</v>
+        <v>0.052065024995467</v>
       </c>
       <c r="H4" t="n">
-        <v>13.9270724394329</v>
+        <v>19.1221291839402</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.00087086598391</v>
+        <v>0.894850665940133</v>
       </c>
       <c r="K4" t="n">
-        <v>1.32389849381499</v>
+        <v>1.099920395522</v>
       </c>
     </row>
     <row r="5">
@@ -1630,22 +1627,22 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.12273454334311</v>
+        <v>1.12270735526781</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0475421399451826</v>
+        <v>0.0475501044455469</v>
       </c>
       <c r="H10" t="n">
-        <v>23.615565993404</v>
+        <v>23.611038679284</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.03462534745638</v>
+        <v>1.03452197676927</v>
       </c>
       <c r="K10" t="n">
-        <v>1.22229227100084</v>
+        <v>1.22163890389146</v>
       </c>
     </row>
     <row r="11">
@@ -1665,22 +1662,22 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.11449963734714</v>
+        <v>1.11451154554326</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0457403531044304</v>
+        <v>0.0457347909152626</v>
       </c>
       <c r="H11" t="n">
-        <v>24.3657856073521</v>
+        <v>24.3690093086514</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.02955638029186</v>
+        <v>1.0297690407319</v>
       </c>
       <c r="K11" t="n">
-        <v>1.21168821725758</v>
+        <v>1.21157385944208</v>
       </c>
     </row>
     <row r="12">
@@ -1731,22 +1728,22 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.24222224320784</v>
+        <v>1.24414513488</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0702475621402116</v>
+        <v>0.0705849193621012</v>
       </c>
       <c r="H13" t="n">
-        <v>17.6834925705807</v>
+        <v>17.6262174147643</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.11831320744051</v>
+        <v>1.11956657627997</v>
       </c>
       <c r="K13" t="n">
-        <v>1.40038352330924</v>
+        <v>1.40302777406837</v>
       </c>
     </row>
     <row r="14">
@@ -1766,22 +1763,22 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.04684516382771</v>
+        <v>1.04680077341441</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0661961651201385</v>
+        <v>0.0661628076030991</v>
       </c>
       <c r="H14" t="n">
-        <v>15.8142871558769</v>
+        <v>15.8215893692724</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.928457061873123</v>
+        <v>0.92834322848993</v>
       </c>
       <c r="K14" t="n">
-        <v>1.18665406311815</v>
+        <v>1.18633440609265</v>
       </c>
     </row>
     <row r="15">
@@ -1801,22 +1798,22 @@
         <v>47</v>
       </c>
       <c r="F15" t="n">
-        <v>0.193445022568985</v>
+        <v>0.19393332468172</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0573885940514235</v>
+        <v>0.048156547316364</v>
       </c>
       <c r="H15" t="n">
-        <v>3.37079215419788</v>
+        <v>4.02714346208577</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0007495238405546</v>
+        <v>0.0000564585869538003</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0812702653394013</v>
+        <v>0.102030095370473</v>
       </c>
       <c r="K15" t="n">
-        <v>0.307796220635805</v>
+        <v>0.290589944886442</v>
       </c>
     </row>
     <row r="16">
@@ -1836,22 +1833,22 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.197202633312412</v>
+        <v>-0.205338626919493</v>
       </c>
       <c r="G16" t="n">
-        <v>0.143173719903804</v>
+        <v>0.142282926076673</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.37736613566309</v>
+        <v>-1.44317124043992</v>
       </c>
       <c r="I16" t="n">
-        <v>0.168399077289015</v>
+        <v>0.148972238914703</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.478225108143904</v>
+        <v>-0.482124495094151</v>
       </c>
       <c r="K16" t="n">
-        <v>0.084710824491223</v>
+        <v>0.0704353741752139</v>
       </c>
     </row>
     <row r="17">
@@ -1871,22 +1868,22 @@
         <v>52</v>
       </c>
       <c r="F17" t="n">
-        <v>0.154701650083032</v>
+        <v>0.157396165941993</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0545952749097422</v>
+        <v>0.0545447952319294</v>
       </c>
       <c r="H17" t="n">
-        <v>2.83360877546248</v>
+        <v>2.88563125542465</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00460256408514104</v>
+        <v>0.0039062953844029</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0471140509649303</v>
+        <v>0.0486016098070127</v>
       </c>
       <c r="K17" t="n">
-        <v>0.263215244237134</v>
+        <v>0.26681210695037</v>
       </c>
     </row>
     <row r="18">
@@ -1906,22 +1903,22 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0793132550876058</v>
+        <v>0.0807756014197177</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0633572893923704</v>
+        <v>0.0633051072189649</v>
       </c>
       <c r="H18" t="n">
-        <v>1.25184104067995</v>
+        <v>1.27597290279163</v>
       </c>
       <c r="I18" t="n">
-        <v>0.210627792172522</v>
+        <v>0.201965098051342</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0458702678480346</v>
+        <v>-0.0417838611908668</v>
       </c>
       <c r="K18" t="n">
-        <v>0.200846170749316</v>
+        <v>0.202425719884179</v>
       </c>
     </row>
     <row r="19">
@@ -1941,22 +1938,22 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.137759262564892</v>
+        <v>0.132504534562464</v>
       </c>
       <c r="G19" t="n">
-        <v>0.088592860219206</v>
+        <v>0.0880179477864202</v>
       </c>
       <c r="H19" t="n">
-        <v>1.55497025633932</v>
+        <v>1.50542631241519</v>
       </c>
       <c r="I19" t="n">
-        <v>0.119953153302891</v>
+        <v>0.13221450847253</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0341530936736971</v>
+        <v>-0.0368120730641062</v>
       </c>
       <c r="K19" t="n">
-        <v>0.314032942731409</v>
+        <v>0.306275126197994</v>
       </c>
     </row>
     <row r="20">
@@ -1976,22 +1973,22 @@
         <v>56</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.12192328677265</v>
+        <v>-0.130466486253616</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0612959013903666</v>
+        <v>0.0538439068896761</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.98909362627975</v>
+        <v>-2.42305014234826</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0466908697238204</v>
+        <v>0.0153908021534326</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.242935840395682</v>
+        <v>-0.236588414868227</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.00346924453133918</v>
+        <v>-0.0247632209184857</v>
       </c>
     </row>
     <row r="21">
@@ -2011,22 +2008,22 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0863982499573694</v>
+        <v>-0.0761701289960508</v>
       </c>
       <c r="G21" t="n">
-        <v>0.147598708461902</v>
+        <v>0.14724872663879</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.585359119044532</v>
+        <v>-0.517288880758205</v>
       </c>
       <c r="I21" t="n">
-        <v>0.558306270963482</v>
+        <v>0.60495451488548</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.378914373012716</v>
+        <v>-0.368498596405186</v>
       </c>
       <c r="K21" t="n">
-        <v>0.196009513848983</v>
+        <v>0.205838036816749</v>
       </c>
     </row>
     <row r="22">
@@ -2046,22 +2043,22 @@
         <v>59</v>
       </c>
       <c r="F22" t="n">
-        <v>0.116682777306476</v>
+        <v>0.114952242493552</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0534762104146981</v>
+        <v>0.053484701523821</v>
       </c>
       <c r="H22" t="n">
-        <v>2.18195673181817</v>
+        <v>2.14925463204379</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0291127262093847</v>
+        <v>0.0316142207111401</v>
       </c>
       <c r="J22" t="n">
-        <v>0.00953832109295336</v>
+        <v>0.00621007660001258</v>
       </c>
       <c r="K22" t="n">
-        <v>0.218218107933096</v>
+        <v>0.217052990414644</v>
       </c>
     </row>
     <row r="23">
@@ -2081,22 +2078,22 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.123661649033354</v>
+        <v>0.122593449483708</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0623198694596439</v>
+        <v>0.0620379771439259</v>
       </c>
       <c r="H23" t="n">
-        <v>1.98430532839022</v>
+        <v>1.97610326976483</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0472218125463786</v>
+        <v>0.0481430821809579</v>
       </c>
       <c r="J23" t="n">
-        <v>0.00422597326054359</v>
+        <v>0.00297123080291817</v>
       </c>
       <c r="K23" t="n">
-        <v>0.245458398644872</v>
+        <v>0.242894439894697</v>
       </c>
     </row>
     <row r="24">
@@ -2116,22 +2113,22 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.287728928796976</v>
+        <v>0.288539461833297</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0890070997013835</v>
+        <v>0.0882439017919199</v>
       </c>
       <c r="H24" t="n">
-        <v>3.23265143749542</v>
+        <v>3.26979492037507</v>
       </c>
       <c r="I24" t="n">
-        <v>0.00122647110392737</v>
+        <v>0.00107625480750073</v>
       </c>
       <c r="J24" t="n">
-        <v>0.112360210653276</v>
+        <v>0.115713472409703</v>
       </c>
       <c r="K24" t="n">
-        <v>0.459381235797649</v>
+        <v>0.458847496048753</v>
       </c>
     </row>
     <row r="25">
@@ -2151,22 +2148,22 @@
         <v>63</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.0994912099612998</v>
+        <v>-0.106620136389774</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0501228558758343</v>
+        <v>0.043786040416734</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.98494695130226</v>
+        <v>-2.43502576106486</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0471503738986956</v>
+        <v>0.0148907295314513</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.200685042130574</v>
+        <v>-0.191858409945852</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0039969541740998</v>
+        <v>-0.0224096830229579</v>
       </c>
     </row>
     <row r="26">
@@ -2186,22 +2183,22 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.120061103031213</v>
+        <v>0.128552542793886</v>
       </c>
       <c r="G26" t="n">
-        <v>0.120964878592994</v>
+        <v>0.12012952334829</v>
       </c>
       <c r="H26" t="n">
-        <v>0.992528611839292</v>
+        <v>1.07011614806109</v>
       </c>
       <c r="I26" t="n">
-        <v>0.32093972935281</v>
+        <v>0.28456703141031</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.11523839947575</v>
+        <v>-0.104431485854889</v>
       </c>
       <c r="K26" t="n">
-        <v>0.349402122397082</v>
+        <v>0.360992776945145</v>
       </c>
     </row>
     <row r="27">
@@ -2221,22 +2218,22 @@
         <v>66</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0349961295623103</v>
+        <v>0.0335767435101459</v>
       </c>
       <c r="G27" t="n">
-        <v>0.042556867861275</v>
+        <v>0.0424596283597001</v>
       </c>
       <c r="H27" t="n">
-        <v>0.822337999036704</v>
+        <v>0.790792213857782</v>
       </c>
       <c r="I27" t="n">
-        <v>0.410884555728058</v>
+        <v>0.4290652542414</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.0469079058506459</v>
+        <v>-0.0483078978370197</v>
       </c>
       <c r="K27" t="n">
-        <v>0.120681488534827</v>
+        <v>0.11942176476162</v>
       </c>
     </row>
     <row r="28">
@@ -2256,22 +2253,22 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0350936121992143</v>
+        <v>0.0342457946547347</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0511404677844078</v>
+        <v>0.0509888432779161</v>
       </c>
       <c r="H28" t="n">
-        <v>0.68622000774725</v>
+        <v>0.671633095657358</v>
       </c>
       <c r="I28" t="n">
-        <v>0.492574382796521</v>
+        <v>0.501817303520463</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.0626322467527102</v>
+        <v>-0.0633051157980574</v>
       </c>
       <c r="K28" t="n">
-        <v>0.135520577032539</v>
+        <v>0.134957078181527</v>
       </c>
     </row>
     <row r="29">
@@ -2291,22 +2288,22 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0793455345893371</v>
+        <v>0.0798789032755982</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0745931463225856</v>
+        <v>0.073530817049234</v>
       </c>
       <c r="H29" t="n">
-        <v>1.0637107898117</v>
+        <v>1.08633232270646</v>
       </c>
       <c r="I29" t="n">
-        <v>0.28745973503547</v>
+        <v>0.277331991642648</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.063410036609414</v>
+        <v>-0.0623286896643051</v>
       </c>
       <c r="K29" t="n">
-        <v>0.227460996737186</v>
+        <v>0.226758520580851</v>
       </c>
     </row>
     <row r="30">
@@ -2326,22 +2323,22 @@
         <v>70</v>
       </c>
       <c r="F30" t="n">
-        <v>0.109597730441398</v>
+        <v>0.106728244122596</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0326581055856913</v>
+        <v>0.0275221959231194</v>
       </c>
       <c r="H30" t="n">
-        <v>3.35591206151947</v>
+        <v>3.87789711332377</v>
       </c>
       <c r="I30" t="n">
-        <v>0.00079103717208362</v>
+        <v>0.000105363255672897</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0461679368429125</v>
+        <v>0.0545302579837734</v>
       </c>
       <c r="K30" t="n">
-        <v>0.173592695323657</v>
+        <v>0.161024044848618</v>
       </c>
     </row>
     <row r="31">
@@ -2361,22 +2358,22 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.0352362916774965</v>
+        <v>-0.0378415042429681</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0864389514906153</v>
+        <v>0.0869575872168397</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.407643673018432</v>
+        <v>-0.435171966634787</v>
       </c>
       <c r="I31" t="n">
-        <v>0.683535296222058</v>
+        <v>0.663437609121273</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.201439560427817</v>
+        <v>-0.206517792850327</v>
       </c>
       <c r="K31" t="n">
-        <v>0.13268388468132</v>
+        <v>0.131093675491414</v>
       </c>
     </row>
     <row r="32">
@@ -2396,22 +2393,22 @@
         <v>73</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0063616321027938</v>
+        <v>0.00786774832538742</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0316278156863287</v>
+        <v>0.031428143417427</v>
       </c>
       <c r="H32" t="n">
-        <v>0.201140419113535</v>
+        <v>0.250340855992935</v>
       </c>
       <c r="I32" t="n">
-        <v>0.840588777897086</v>
+        <v>0.802323763580206</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.0532421256046563</v>
+        <v>-0.051187712762016</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0703791295752777</v>
+        <v>0.0715344229978788</v>
       </c>
     </row>
     <row r="33">
@@ -2431,22 +2428,22 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.035067172563876</v>
+        <v>-0.0342745803774278</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0333406057264422</v>
+        <v>0.0333464104978842</v>
       </c>
       <c r="H33" t="n">
-        <v>-1.05178570694247</v>
+        <v>-1.02783417662307</v>
       </c>
       <c r="I33" t="n">
-        <v>0.29289787812588</v>
+        <v>0.304027836760687</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.10104290692728</v>
+        <v>-0.099566295677475</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0303136314599147</v>
+        <v>0.0314638234218913</v>
       </c>
     </row>
     <row r="34">
@@ -2466,22 +2463,22 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.0254788389455251</v>
+        <v>-0.029688163032988</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0569723116665137</v>
+        <v>0.0558108358490434</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.447214413462192</v>
+        <v>-0.531942634102243</v>
       </c>
       <c r="I34" t="n">
-        <v>0.654720255486101</v>
+        <v>0.594765727703095</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.136983092244021</v>
+        <v>-0.138711676748532</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0817364563720953</v>
+        <v>0.0766030413192164</v>
       </c>
     </row>
     <row r="35">
@@ -2501,22 +2498,22 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.590786041683779</v>
+        <v>0.631262855146643</v>
       </c>
       <c r="G35" t="n">
-        <v>0.156737307529309</v>
+        <v>0.171581390922181</v>
       </c>
       <c r="H35" t="n">
-        <v>3.76927517128176</v>
+        <v>3.67908694383383</v>
       </c>
       <c r="I35" t="n">
-        <v>0.00016372231045092</v>
+        <v>0.000234070466310188</v>
       </c>
       <c r="J35" t="n">
-        <v>0.277488892084273</v>
+        <v>0.288296517554224</v>
       </c>
       <c r="K35" t="n">
-        <v>0.889388707448666</v>
+        <v>0.955637518780249</v>
       </c>
     </row>
     <row r="36">
@@ -2536,22 +2533,22 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.00413504913530224</v>
+        <v>-0.011546700700843</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0726282331523575</v>
+        <v>0.0778885248346775</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.056934458623382</v>
+        <v>-0.148246493631141</v>
       </c>
       <c r="I36" t="n">
-        <v>0.95459740480938</v>
+        <v>0.882148240545468</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.142766292454356</v>
+        <v>-0.16745662620957</v>
       </c>
       <c r="K36" t="n">
-        <v>0.140707994364662</v>
+        <v>0.140612708721969</v>
       </c>
     </row>
     <row r="37">
@@ -2571,22 +2568,22 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.357116806329425</v>
+        <v>-0.327336920249566</v>
       </c>
       <c r="G37" t="n">
-        <v>0.105363750494861</v>
+        <v>0.107747970840002</v>
       </c>
       <c r="H37" t="n">
-        <v>-3.38937067684243</v>
+        <v>-3.03798686599527</v>
       </c>
       <c r="I37" t="n">
-        <v>0.000700532435425893</v>
+        <v>0.00238164334625179</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.57491576823191</v>
+        <v>-0.542537585339989</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.160347836456183</v>
+        <v>-0.122060469867962</v>
       </c>
     </row>
     <row r="38">
@@ -2606,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.151413132630203</v>
+        <v>-0.151472122874266</v>
       </c>
       <c r="G38" t="n">
-        <v>0.169066483654256</v>
+        <v>0.169068219117026</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.895583378547374</v>
+        <v>-0.895923099358015</v>
       </c>
       <c r="I38" t="n">
-        <v>0.370475316234408</v>
+        <v>0.370293836162874</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.492709912057448</v>
+        <v>-0.492942721614192</v>
       </c>
       <c r="K38" t="n">
-        <v>0.171185928674281</v>
+        <v>0.170937557693251</v>
       </c>
     </row>
     <row r="39">
@@ -2641,22 +2638,22 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0372144031122554</v>
+        <v>0.0372220487456614</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0628696931977485</v>
+        <v>0.062869388253304</v>
       </c>
       <c r="H39" t="n">
-        <v>0.591929134999947</v>
+        <v>0.592053617504465</v>
       </c>
       <c r="I39" t="n">
-        <v>0.55389804303296</v>
+        <v>0.553814684837334</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.0907003269591347</v>
+        <v>-0.0908673662796484</v>
       </c>
       <c r="K39" t="n">
-        <v>0.156870047287751</v>
+        <v>0.156883066071607</v>
       </c>
     </row>
     <row r="40">
@@ -2676,22 +2673,22 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.0835101868995005</v>
+        <v>-0.0835519076345918</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0798429117683811</v>
+        <v>0.0798186662928246</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.04593112963813</v>
+        <v>-1.04677153246424</v>
       </c>
       <c r="I40" t="n">
-        <v>0.295592830682514</v>
+        <v>0.295204962933707</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.24117002230306</v>
+        <v>-0.241320264937027</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0712392155932906</v>
+        <v>0.0714158612452749</v>
       </c>
     </row>
     <row r="41">
@@ -2711,22 +2708,22 @@
         <v>84</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.232170507120533</v>
+        <v>-0.232195937897541</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0754593824302116</v>
+        <v>0.0754540093084159</v>
       </c>
       <c r="H41" t="n">
-        <v>-3.07676129386899</v>
+        <v>-3.07731742853382</v>
       </c>
       <c r="I41" t="n">
-        <v>0.00209262806160537</v>
+        <v>0.00208872744903887</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.376111679200318</v>
+        <v>-0.376114931467551</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0793470113389645</v>
+        <v>-0.0793607237666522</v>
       </c>
     </row>
     <row r="42">
@@ -2746,22 +2743,22 @@
         <v>86</v>
       </c>
       <c r="F42" t="n">
-        <v>0.434026806663323</v>
+        <v>0.434099340520815</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0777071247069475</v>
+        <v>0.0777026162398192</v>
       </c>
       <c r="H42" t="n">
-        <v>5.58541843235281</v>
+        <v>5.58667599017545</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0000000233138193195259</v>
+        <v>0.0000000231456980248623</v>
       </c>
       <c r="J42" t="n">
-        <v>0.277359138923628</v>
+        <v>0.277531475821005</v>
       </c>
       <c r="K42" t="n">
-        <v>0.579810742940302</v>
+        <v>0.579803618476344</v>
       </c>
     </row>
     <row r="43">
@@ -2781,22 +2778,22 @@
         <v>88</v>
       </c>
       <c r="F43" t="n">
-        <v>0.11269993590401</v>
+        <v>0.112713337388054</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0950460217156503</v>
+        <v>0.0950441978962564</v>
       </c>
       <c r="H43" t="n">
-        <v>1.18574069560929</v>
+        <v>1.18590445164348</v>
       </c>
       <c r="I43" t="n">
-        <v>0.23572471799044</v>
+        <v>0.235660034966649</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.0691552658240422</v>
+        <v>-0.0691435339675859</v>
       </c>
       <c r="K43" t="n">
-        <v>0.303497208444676</v>
+        <v>0.303407933993318</v>
       </c>
     </row>
     <row r="44">
@@ -2816,22 +2813,22 @@
         <v>90</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.226398242320471</v>
+        <v>-0.226387613437406</v>
       </c>
       <c r="G44" t="n">
-        <v>0.123207940731864</v>
+        <v>0.12320268607468</v>
       </c>
       <c r="H44" t="n">
-        <v>-1.83752963466194</v>
+        <v>-1.8375217347143</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0661317457726867</v>
+        <v>0.0661329108814694</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.470663232937382</v>
+        <v>-0.470731624927448</v>
       </c>
       <c r="K44" t="n">
-        <v>0.00949396763707165</v>
+        <v>0.00961928568325384</v>
       </c>
     </row>
     <row r="45">
@@ -2851,22 +2848,22 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.174568670622623</v>
+        <v>0.174299130673795</v>
       </c>
       <c r="G45" t="n">
-        <v>0.104129835313072</v>
+        <v>0.104069054621806</v>
       </c>
       <c r="H45" t="n">
-        <v>1.67645199954243</v>
+        <v>1.67484110725528</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0936496907987481</v>
+        <v>0.0939654110930297</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.0297812505081613</v>
+        <v>-0.0302706510978925</v>
       </c>
       <c r="K45" t="n">
-        <v>0.377255617119777</v>
+        <v>0.376768974148354</v>
       </c>
     </row>
     <row r="46">
@@ -2886,22 +2883,22 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.422810118423705</v>
+        <v>0.413724155267986</v>
       </c>
       <c r="G46" t="n">
-        <v>0.079034131209445</v>
+        <v>0.0788291695662083</v>
       </c>
       <c r="H46" t="n">
-        <v>5.34971552104791</v>
+        <v>5.24836374079142</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0000000880925961066481</v>
+        <v>0.000000153456079177161</v>
       </c>
       <c r="J46" t="n">
-        <v>0.257728003924695</v>
+        <v>0.250398321113496</v>
       </c>
       <c r="K46" t="n">
-        <v>0.567453241610202</v>
+        <v>0.557880455046739</v>
       </c>
     </row>
     <row r="47">
@@ -2921,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.263426226010045</v>
+        <v>0.255723716870687</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0709302079216501</v>
+        <v>0.069240843647192</v>
       </c>
       <c r="H47" t="n">
-        <v>3.71387923042643</v>
+        <v>3.69324958219306</v>
       </c>
       <c r="I47" t="n">
-        <v>0.000204106226869616</v>
+        <v>0.000221406530040991</v>
       </c>
       <c r="J47" t="n">
-        <v>0.125272775019636</v>
+        <v>0.120038935388692</v>
       </c>
       <c r="K47" t="n">
-        <v>0.405275938829514</v>
+        <v>0.393655912900753</v>
       </c>
     </row>
     <row r="48">
@@ -2956,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.34915366471909</v>
+        <v>0.362889687154965</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0954146418170284</v>
+        <v>0.0937752664092188</v>
       </c>
       <c r="H48" t="n">
-        <v>3.65933003645964</v>
+        <v>3.86978039146674</v>
       </c>
       <c r="I48" t="n">
-        <v>0.000252875494894944</v>
+        <v>0.000108933433462077</v>
       </c>
       <c r="J48" t="n">
-        <v>0.155105935789878</v>
+        <v>0.171519449096385</v>
       </c>
       <c r="K48" t="n">
-        <v>0.532374909915349</v>
+        <v>0.540715047023478</v>
       </c>
     </row>
     <row r="49">
@@ -2991,22 +2988,22 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.120419957381404</v>
+        <v>0.126058478842406</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0627745356136753</v>
+        <v>0.0624097439841831</v>
       </c>
       <c r="H49" t="n">
-        <v>1.9182930818077</v>
+        <v>2.01985252293863</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0550738591575513</v>
+        <v>0.0433986871897991</v>
       </c>
       <c r="J49" t="n">
-        <v>0.00395739531096445</v>
+        <v>0.0104625887049313</v>
       </c>
       <c r="K49" t="n">
-        <v>0.252132371648736</v>
+        <v>0.257197659907905</v>
       </c>
     </row>
     <row r="50">
@@ -3026,22 +3023,22 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.289539464587357</v>
+        <v>-0.282686465500484</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0627651711868068</v>
+        <v>0.0620630241612322</v>
       </c>
       <c r="H50" t="n">
-        <v>-4.61305942631155</v>
+        <v>-4.55482905193434</v>
       </c>
       <c r="I50" t="n">
-        <v>0.00000396784797462857</v>
+        <v>0.0000052428196712917</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.41383021354282</v>
+        <v>-0.405203570271157</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.169598814078177</v>
+        <v>-0.162465750017572</v>
       </c>
     </row>
     <row r="51">
@@ -3061,22 +3058,22 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.33494576342281</v>
+        <v>-0.323634823888387</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0647122075048621</v>
+        <v>0.0633771250549448</v>
       </c>
       <c r="H51" t="n">
-        <v>-5.17592856645548</v>
+        <v>-5.10649265973823</v>
       </c>
       <c r="I51" t="n">
-        <v>0.00000022678021927014</v>
+        <v>0.0000003281933531607</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.459296334823594</v>
+        <v>-0.445455756114947</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.206497396000636</v>
+        <v>-0.197891634228807</v>
       </c>
     </row>
     <row r="52">
@@ -3096,22 +3093,22 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0161609651397317</v>
+        <v>-0.0121629643227846</v>
       </c>
       <c r="G52" t="n">
-        <v>0.119741224905725</v>
+        <v>0.123194118812065</v>
       </c>
       <c r="H52" t="n">
-        <v>0.134965757636567</v>
+        <v>-0.0987300728319623</v>
       </c>
       <c r="I52" t="n">
-        <v>0.892638948011092</v>
+        <v>0.921352590843695</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.213204861841095</v>
+        <v>-0.253086766767113</v>
       </c>
       <c r="K52" t="n">
-        <v>0.257922950299683</v>
+        <v>0.225372313233201</v>
       </c>
     </row>
     <row r="53">
@@ -3131,22 +3128,22 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>1.0614674532967</v>
+        <v>0.991475481923626</v>
       </c>
       <c r="G53" t="n">
-        <v>0.198205292278308</v>
+        <v>0.187315995331691</v>
       </c>
       <c r="H53" t="n">
-        <v>5.3553941022233</v>
+        <v>5.29306362848492</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0000000853701351832825</v>
+        <v>0.000000120284045390662</v>
       </c>
       <c r="J53" t="n">
-        <v>0.685574006860121</v>
+        <v>0.644114405626753</v>
       </c>
       <c r="K53" t="n">
-        <v>1.45001728458665</v>
+        <v>1.37870248555379</v>
       </c>
     </row>
     <row r="54">
@@ -3166,22 +3163,22 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.648382494834978</v>
+        <v>0.367038139974144</v>
       </c>
       <c r="G54" t="n">
-        <v>0.193344620985675</v>
+        <v>0.147114586360347</v>
       </c>
       <c r="H54" t="n">
-        <v>3.35350676698172</v>
+        <v>2.49491331250533</v>
       </c>
       <c r="I54" t="n">
-        <v>0.000797944626206304</v>
+        <v>0.0125987905057678</v>
       </c>
       <c r="J54" t="n">
-        <v>0.292902605110756</v>
+        <v>0.096307913724246</v>
       </c>
       <c r="K54" t="n">
-        <v>1.04466395519238</v>
+        <v>0.690940415785183</v>
       </c>
     </row>
     <row r="55">
@@ -3201,22 +3198,22 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.759970730875362</v>
+        <v>0.618042662582952</v>
       </c>
       <c r="G55" t="n">
-        <v>0.16147199189804</v>
+        <v>0.137941660808331</v>
       </c>
       <c r="H55" t="n">
-        <v>4.70651734670641</v>
+        <v>4.48046412491524</v>
       </c>
       <c r="I55" t="n">
-        <v>0.00000251984552690487</v>
+        <v>0.00000744808987085399</v>
       </c>
       <c r="J55" t="n">
-        <v>0.461447036567812</v>
+        <v>0.358268433582984</v>
       </c>
       <c r="K55" t="n">
-        <v>1.09315969333479</v>
+        <v>0.896076577424188</v>
       </c>
     </row>
     <row r="56">
@@ -3360,22 +3357,22 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.592099136286663</v>
+        <v>0.592079792634709</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0812151776536817</v>
+        <v>0.08121610899345</v>
       </c>
       <c r="H60" t="n">
-        <v>7.2904985668011</v>
+        <v>7.29017678847997</v>
       </c>
       <c r="I60" t="n">
-        <v>0.000000000000308864045450719</v>
+        <v>0.000000000000309530179265494</v>
       </c>
       <c r="J60" t="n">
-        <v>0.436532121873017</v>
+        <v>0.436697970614798</v>
       </c>
       <c r="K60" t="n">
-        <v>0.755280170589829</v>
+        <v>0.754721271449279</v>
       </c>
     </row>
     <row r="61">
@@ -3395,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.226166921787885</v>
+        <v>0.226236008112227</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0559621900790871</v>
+        <v>0.0560164273687255</v>
       </c>
       <c r="H61" t="n">
-        <v>4.04142370890526</v>
+        <v>4.03874396742654</v>
       </c>
       <c r="I61" t="n">
-        <v>0.000053127665653907</v>
+        <v>0.0000537381822069971</v>
       </c>
       <c r="J61" t="n">
-        <v>0.118440568943484</v>
+        <v>0.118394708111442</v>
       </c>
       <c r="K61" t="n">
-        <v>0.341634124169268</v>
+        <v>0.342145057097545</v>
       </c>
     </row>
     <row r="62">
@@ -3430,22 +3427,22 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.347362147309286</v>
+        <v>0.347297290699558</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0605760196853777</v>
+        <v>0.0606030206152438</v>
       </c>
       <c r="H62" t="n">
-        <v>5.73431778967041</v>
+        <v>5.73069274722258</v>
       </c>
       <c r="I62" t="n">
-        <v>0.00000000979056125061106</v>
+        <v>0.0000000100021297910757</v>
       </c>
       <c r="J62" t="n">
-        <v>0.23322383554653</v>
+        <v>0.232650789039716</v>
       </c>
       <c r="K62" t="n">
-        <v>0.467225886629998</v>
+        <v>0.46721290033137</v>
       </c>
     </row>
     <row r="63">
@@ -3465,22 +3462,22 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.473830083621539</v>
+        <v>0.475013635208164</v>
       </c>
       <c r="G63" t="n">
-        <v>0.064766604159552</v>
+        <v>0.0647062132350375</v>
       </c>
       <c r="H63" t="n">
-        <v>7.3159630610594</v>
+        <v>7.34108227725728</v>
       </c>
       <c r="I63" t="n">
-        <v>0.000000000000255573340268711</v>
+        <v>0.00000000000021183055309848</v>
       </c>
       <c r="J63" t="n">
-        <v>0.352816468796237</v>
+        <v>0.352706524508664</v>
       </c>
       <c r="K63" t="n">
-        <v>0.609225223158725</v>
+        <v>0.611293258573347</v>
       </c>
     </row>
     <row r="64">
@@ -3500,22 +3497,22 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0460938077229259</v>
+        <v>0.0440720269076364</v>
       </c>
       <c r="G64" t="n">
-        <v>0.040265555886341</v>
+        <v>0.0404764464429555</v>
       </c>
       <c r="H64" t="n">
-        <v>1.1447453464454</v>
+        <v>1.08883142619124</v>
       </c>
       <c r="I64" t="n">
-        <v>0.252314661067105</v>
+        <v>0.276228230476336</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.0372400464858436</v>
+        <v>-0.0398515217547641</v>
       </c>
       <c r="K64" t="n">
-        <v>0.121062053388555</v>
+        <v>0.119923142486815</v>
       </c>
     </row>
     <row r="65">
@@ -3535,22 +3532,22 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.466470358190184</v>
+        <v>0.467842453900565</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0533976440035228</v>
+        <v>0.0536871433251619</v>
       </c>
       <c r="H65" t="n">
-        <v>8.73578538707457</v>
+        <v>8.71423631291067</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0.361832794617098</v>
+        <v>0.362788299604516</v>
       </c>
       <c r="K65" t="n">
-        <v>0.574095811954663</v>
+        <v>0.576933892932819</v>
       </c>
     </row>
     <row r="66">
@@ -3570,22 +3567,22 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>2.31772304322602</v>
+        <v>2.31782806877141</v>
       </c>
       <c r="G66" t="n">
-        <v>0.162345979727173</v>
+        <v>0.162335572122111</v>
       </c>
       <c r="H66" t="n">
-        <v>14.2764424910369</v>
+        <v>14.2780047433344</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.95046063746908</v>
+        <v>1.95021146218956</v>
       </c>
       <c r="K66" t="n">
-        <v>2.5826992427759</v>
+        <v>2.58268297419947</v>
       </c>
     </row>
     <row r="67">
@@ -3605,22 +3602,22 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>2.03326315549605</v>
+        <v>2.03326144329911</v>
       </c>
       <c r="G67" t="n">
-        <v>0.132549015128085</v>
+        <v>0.132549020242595</v>
       </c>
       <c r="H67" t="n">
-        <v>15.3397077566458</v>
+        <v>15.3396942472888</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.77564368278041</v>
+        <v>1.77564053356342</v>
       </c>
       <c r="K67" t="n">
-        <v>2.29274420317097</v>
+        <v>2.29274542285443</v>
       </c>
     </row>
     <row r="68">
@@ -3640,22 +3637,22 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1.87482436160804</v>
+        <v>2.29299253746666</v>
       </c>
       <c r="G68" t="n">
-        <v>0.243941218891296</v>
+        <v>0.21576806640339</v>
       </c>
       <c r="H68" t="n">
-        <v>7.68555789845212</v>
+        <v>10.6271172360593</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0000000000000153210777398272</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.39000668545226</v>
+        <v>1.84738978148703</v>
       </c>
       <c r="K68" t="n">
-        <v>2.353955765091</v>
+        <v>2.70445898428373</v>
       </c>
     </row>
     <row r="69">
@@ -3675,22 +3672,22 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>1.80570751414498</v>
+        <v>1.79468082432992</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0936511335814414</v>
+        <v>0.0942509429071214</v>
       </c>
       <c r="H69" t="n">
-        <v>19.2812136392849</v>
+        <v>19.041515861528</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.59028382253136</v>
+        <v>1.57747501118577</v>
       </c>
       <c r="K69" t="n">
-        <v>1.95618015011308</v>
+        <v>1.95036554564844</v>
       </c>
     </row>
     <row r="70">
@@ -3710,22 +3707,22 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>1.67948565271613</v>
+        <v>1.66337045750586</v>
       </c>
       <c r="G70" t="n">
-        <v>0.102053841101098</v>
+        <v>0.100140929822872</v>
       </c>
       <c r="H70" t="n">
-        <v>16.456858797234</v>
+        <v>16.6102957147294</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>1.45025885857932</v>
+        <v>1.43345117981087</v>
       </c>
       <c r="K70" t="n">
-        <v>1.84679019353044</v>
+        <v>1.82792092543605</v>
       </c>
     </row>
     <row r="71">
@@ -3745,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.617678787139582</v>
+        <v>0.614082812024285</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0879275203036761</v>
+        <v>0.0876142112613221</v>
       </c>
       <c r="H71" t="n">
-        <v>7.02486303498948</v>
+        <v>7.0089407093182</v>
       </c>
       <c r="I71" t="n">
-        <v>0.00000000000214273043752655</v>
+        <v>0.00000000000240119035765929</v>
       </c>
       <c r="J71" t="n">
-        <v>0.446641015855723</v>
+        <v>0.441171001059203</v>
       </c>
       <c r="K71" t="n">
-        <v>0.788111656507885</v>
+        <v>0.784864513706459</v>
       </c>
     </row>
     <row r="72">
@@ -3780,22 +3777,22 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1.08744853527107</v>
+        <v>1.07997282624944</v>
       </c>
       <c r="G72" t="n">
-        <v>0.106519123197691</v>
+        <v>0.105114188507068</v>
       </c>
       <c r="H72" t="n">
-        <v>10.2089512439269</v>
+        <v>10.2742821077558</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0.86828794993598</v>
+        <v>0.865125585025374</v>
       </c>
       <c r="K72" t="n">
-        <v>1.28687622940035</v>
+        <v>1.27267094709509</v>
       </c>
     </row>
     <row r="73">
@@ -3815,22 +3812,22 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>1.5326247319438</v>
+        <v>1.53264520312095</v>
       </c>
       <c r="G73" t="n">
-        <v>0.155454628385513</v>
+        <v>0.155441032758308</v>
       </c>
       <c r="H73" t="n">
-        <v>9.85898424421965</v>
+        <v>9.85997825621777</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.23251078130211</v>
+        <v>1.23240645030556</v>
       </c>
       <c r="K73" t="n">
-        <v>1.84250024140616</v>
+        <v>1.84345238095258</v>
       </c>
     </row>
     <row r="74">
@@ -3850,22 +3847,22 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.806061669492504</v>
+        <v>0.804878171734137</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0903463794210134</v>
+        <v>0.0902814183568777</v>
       </c>
       <c r="H74" t="n">
-        <v>8.92190339732668</v>
+        <v>8.91521407597404</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0.628882492184935</v>
+        <v>0.627448157985862</v>
       </c>
       <c r="K74" t="n">
-        <v>0.984965959778536</v>
+        <v>0.983681245857099</v>
       </c>
     </row>
     <row r="75">
@@ -3885,22 +3882,22 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.177143919997095</v>
+        <v>-0.176856577880463</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0728139318518882</v>
+        <v>0.0727315615773609</v>
       </c>
       <c r="H75" t="n">
-        <v>-2.43283002980014</v>
+        <v>-2.43163454826072</v>
       </c>
       <c r="I75" t="n">
-        <v>0.014981331646408</v>
+        <v>0.0150308645085639</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.318930198426708</v>
+        <v>-0.318428767041875</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.0408060555625551</v>
+        <v>-0.0409102753699552</v>
       </c>
     </row>
     <row r="76">
@@ -3951,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>4.85549451943788</v>
+        <v>4.81158757553134</v>
       </c>
       <c r="G77" t="n">
-        <v>0.128998781920102</v>
+        <v>0.135512194872318</v>
       </c>
       <c r="H77" t="n">
-        <v>37.639847812247</v>
+        <v>35.506675838768</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>4.60475199630038</v>
+        <v>4.5482065351868</v>
       </c>
       <c r="K77" t="n">
-        <v>5.10898697210411</v>
+        <v>5.07406789933911</v>
       </c>
     </row>
     <row r="78">
@@ -3986,22 +3983,22 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>4.78207374075314</v>
+        <v>4.86365100165345</v>
       </c>
       <c r="G78" t="n">
-        <v>0.141401276702924</v>
+        <v>0.146654633314389</v>
       </c>
       <c r="H78" t="n">
-        <v>33.8191694746858</v>
+        <v>33.163977787371</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>4.50341117468205</v>
+        <v>4.58215946478914</v>
       </c>
       <c r="K78" t="n">
-        <v>5.05140922983387</v>
+        <v>5.15331579087449</v>
       </c>
     </row>
     <row r="79">
@@ -4021,22 +4018,22 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>4.87849697783433</v>
+        <v>5.14433907159107</v>
       </c>
       <c r="G79" t="n">
-        <v>0.142078543726609</v>
+        <v>0.135268408509013</v>
       </c>
       <c r="H79" t="n">
-        <v>34.336620082633</v>
+        <v>38.0306024761745</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>4.60196530679852</v>
+        <v>4.87948083773476</v>
       </c>
       <c r="K79" t="n">
-        <v>5.15700755974594</v>
+        <v>5.40285164106737</v>
       </c>
     </row>
     <row r="80">
@@ -4056,22 +4053,22 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>1.78794394511569</v>
+        <v>1.79310373952013</v>
       </c>
       <c r="G80" t="n">
-        <v>0.194482202347054</v>
+        <v>0.194480800870121</v>
       </c>
       <c r="H80" t="n">
-        <v>9.19335509130597</v>
+        <v>9.21995246573263</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1.40989504894139</v>
+        <v>1.41618699974048</v>
       </c>
       <c r="K80" t="n">
-        <v>2.1757298781743</v>
+        <v>2.18251072194607</v>
       </c>
     </row>
     <row r="81">
@@ -4091,22 +4088,22 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.910120439913523</v>
+        <v>0.902163823758983</v>
       </c>
       <c r="G81" t="n">
-        <v>0.192181600874899</v>
+        <v>0.191499836231618</v>
       </c>
       <c r="H81" t="n">
-        <v>4.73573139036326</v>
+        <v>4.7110422729961</v>
       </c>
       <c r="I81" t="n">
-        <v>0.00000218266515950027</v>
+        <v>0.0000024645310365834</v>
       </c>
       <c r="J81" t="n">
-        <v>0.536578990329623</v>
+        <v>0.530397217816622</v>
       </c>
       <c r="K81" t="n">
-        <v>1.28392759928308</v>
+        <v>1.27431277614493</v>
       </c>
     </row>
     <row r="82">
@@ -4126,22 +4123,22 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.38066135396114</v>
+        <v>0.376204204542615</v>
       </c>
       <c r="G82" t="n">
-        <v>0.108934018911027</v>
+        <v>0.108418175434846</v>
       </c>
       <c r="H82" t="n">
-        <v>3.49442128149197</v>
+        <v>3.469936687587</v>
       </c>
       <c r="I82" t="n">
-        <v>0.000475090689763258</v>
+        <v>0.000520581060294401</v>
       </c>
       <c r="J82" t="n">
-        <v>0.172850187645353</v>
+        <v>0.169158834317419</v>
       </c>
       <c r="K82" t="n">
-        <v>0.593279260072621</v>
+        <v>0.585375133657653</v>
       </c>
     </row>
     <row r="83">
@@ -4161,22 +4158,22 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.582003613295388</v>
+        <v>0.586211831096747</v>
       </c>
       <c r="G83" t="n">
-        <v>0.141072352922375</v>
+        <v>0.140969740257569</v>
       </c>
       <c r="H83" t="n">
-        <v>4.12556820127353</v>
+        <v>4.15842314829881</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0000369820565038204</v>
+        <v>0.0000320452005735383</v>
       </c>
       <c r="J83" t="n">
-        <v>0.308427524543685</v>
+        <v>0.313961616206585</v>
       </c>
       <c r="K83" t="n">
-        <v>0.861612217776117</v>
+        <v>0.864274761300035</v>
       </c>
     </row>
     <row r="84">
@@ -4196,22 +4193,22 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>4.90828417827465</v>
+        <v>4.90828414020403</v>
       </c>
       <c r="G84" t="n">
-        <v>0.080301579073636</v>
+        <v>0.0803015812364834</v>
       </c>
       <c r="H84" t="n">
-        <v>61.1231340018082</v>
+        <v>61.1231318814187</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>4.75147908617361</v>
+        <v>4.75147927209196</v>
       </c>
       <c r="K84" t="n">
-        <v>5.06508880731867</v>
+        <v>5.06508889801334</v>
       </c>
     </row>
     <row r="85">
@@ -4231,22 +4228,22 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>4.9319526764966</v>
+        <v>4.931952740457</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0803939785659451</v>
+        <v>0.0803939784328383</v>
       </c>
       <c r="H85" t="n">
-        <v>61.3472894919742</v>
+        <v>61.3472903891327</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>4.77514756299983</v>
+        <v>4.77514746499314</v>
       </c>
       <c r="K85" t="n">
-        <v>5.0917159976872</v>
+        <v>5.09171587038091</v>
       </c>
     </row>
     <row r="86">
@@ -4266,22 +4263,22 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>5.02071008253647</v>
+        <v>5.02071014664882</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0820210240938831</v>
+        <v>0.0820210288607159</v>
       </c>
       <c r="H86" t="n">
-        <v>61.2124773861596</v>
+        <v>61.212474610319</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>4.86094635754465</v>
+        <v>4.86094651833438</v>
       </c>
       <c r="K86" t="n">
-        <v>5.18639033178261</v>
+        <v>5.18639037913765</v>
       </c>
     </row>
     <row r="87">
@@ -4301,22 +4298,22 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>3.1479290028745</v>
+        <v>3.14792891426444</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0613600794592912</v>
+        <v>0.0613600645370154</v>
       </c>
       <c r="H87" t="n">
-        <v>51.3025574708221</v>
+        <v>51.302568503093</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>3.02662745216602</v>
+        <v>3.02662736319412</v>
       </c>
       <c r="K87" t="n">
-        <v>3.2692304364169</v>
+        <v>3.26923038748706</v>
       </c>
     </row>
     <row r="88">
@@ -4336,22 +4333,22 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>2.84615396497414</v>
+        <v>2.84615373556599</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0603607028257404</v>
+        <v>0.0603607004714055</v>
       </c>
       <c r="H88" t="n">
-        <v>47.1524324889143</v>
+        <v>47.1524305274471</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>2.72485213105905</v>
+        <v>2.72485197701575</v>
       </c>
       <c r="K88" t="n">
-        <v>2.96449755229296</v>
+        <v>2.96449772090134</v>
       </c>
     </row>
     <row r="89">
@@ -4371,22 +4368,22 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>2.63609480950993</v>
+        <v>2.63609457441638</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0622340436994202</v>
+        <v>0.0622340503686806</v>
       </c>
       <c r="H89" t="n">
-        <v>42.357761970953</v>
+        <v>42.3577536541475</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.51486803253671</v>
+        <v>2.51486747554963</v>
       </c>
       <c r="K89" t="n">
-        <v>2.76035557653691</v>
+        <v>2.76035643513978</v>
       </c>
     </row>
     <row r="90">
@@ -4406,22 +4403,22 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>3.36267055894779</v>
+        <v>3.36823719994723</v>
       </c>
       <c r="G90" t="n">
-        <v>0.228093239310167</v>
+        <v>0.227142306800314</v>
       </c>
       <c r="H90" t="n">
-        <v>14.7425262104115</v>
+        <v>14.828753160935</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.92927701886357</v>
+        <v>2.93668437272338</v>
       </c>
       <c r="K90" t="n">
-        <v>3.82231717336442</v>
+        <v>3.83018567817264</v>
       </c>
     </row>
     <row r="91">
@@ -4472,22 +4469,22 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>2.95266280260044</v>
+        <v>2.95266274879621</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0779970866223738</v>
+        <v>0.0779970807474417</v>
       </c>
       <c r="H92" t="n">
-        <v>37.8560652771029</v>
+        <v>37.8560674386914</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>2.80473362514517</v>
+        <v>2.80473362734935</v>
       </c>
       <c r="K92" t="n">
-        <v>3.10946755164209</v>
+        <v>3.10946756430236</v>
       </c>
     </row>
     <row r="93">
@@ -4724,22 +4721,22 @@
         <v>149</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.0449122289897841</v>
+        <v>-0.0450305302140603</v>
       </c>
       <c r="G100" t="n">
-        <v>0.021426681619719</v>
+        <v>0.0198249388524966</v>
       </c>
       <c r="H100" t="n">
-        <v>-2.09608887586454</v>
+        <v>-2.27140827767998</v>
       </c>
       <c r="I100" t="n">
-        <v>0.0360743076327283</v>
+        <v>0.0231222737774723</v>
       </c>
       <c r="J100" t="n">
-        <v>-0.0947631393710539</v>
+        <v>-0.0897400019438722</v>
       </c>
       <c r="K100" t="n">
-        <v>-0.0102072894864854</v>
+        <v>-0.0119767312266462</v>
       </c>
     </row>
     <row r="101">
@@ -4759,22 +4756,22 @@
         <v>153</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.0529179748158299</v>
+        <v>-0.0566354156427628</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0288357143884383</v>
+        <v>0.0262301497097193</v>
       </c>
       <c r="H101" t="n">
-        <v>-1.83515393802927</v>
+        <v>-2.15917241302581</v>
       </c>
       <c r="I101" t="n">
-        <v>0.0664828838818721</v>
+        <v>0.0308367934369034</v>
       </c>
       <c r="J101" t="n">
-        <v>-0.112232048836466</v>
+        <v>-0.112377340450942</v>
       </c>
       <c r="K101" t="n">
-        <v>-0.00129480672199987</v>
+        <v>-0.00978282247483037</v>
       </c>
     </row>
     <row r="102">
@@ -4794,22 +4791,22 @@
         <v>156</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.0112126529856509</v>
+        <v>-0.012017511405261</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0121547601424267</v>
+        <v>0.0119203364741262</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.922490683013372</v>
+        <v>-1.00815202921039</v>
       </c>
       <c r="I102" t="n">
-        <v>0.356272687948341</v>
+        <v>0.313381483161324</v>
       </c>
       <c r="J102" t="n">
-        <v>-0.0406049536256252</v>
+        <v>-0.0395838213424333</v>
       </c>
       <c r="K102" t="n">
-        <v>0.006863943532834</v>
+        <v>0.00700459450501963</v>
       </c>
     </row>
     <row r="103">
@@ -4829,22 +4826,22 @@
         <v>159</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.0248127335342453</v>
+        <v>-0.0241619524732794</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0159416555439982</v>
+        <v>0.0149737038890755</v>
       </c>
       <c r="H103" t="n">
-        <v>-1.55647156380737</v>
+        <v>-1.61362563680102</v>
       </c>
       <c r="I103" t="n">
-        <v>0.119595999446753</v>
+        <v>0.106608652595864</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.0614717446181673</v>
+        <v>-0.0575650770885508</v>
       </c>
       <c r="K103" t="n">
-        <v>0.00107607208936007</v>
+        <v>0.000983608451567772</v>
       </c>
     </row>
     <row r="104">
@@ -4864,22 +4861,22 @@
         <v>162</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.0359171605521607</v>
+        <v>-0.036546750372378</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0178280698630118</v>
+        <v>0.0179639461934589</v>
       </c>
       <c r="H104" t="n">
-        <v>-2.01464100310032</v>
+        <v>-2.03445000217634</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0439422779458654</v>
+        <v>0.0419062447612872</v>
       </c>
       <c r="J104" t="n">
-        <v>-0.0767276992556351</v>
+        <v>-0.0773584359027911</v>
       </c>
       <c r="K104" t="n">
-        <v>-0.00672009438765694</v>
+        <v>-0.00706249105518772</v>
       </c>
     </row>
     <row r="105">
@@ -4899,22 +4896,22 @@
         <v>165</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0506434532269374</v>
+        <v>0.0499006926578396</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0249197358656865</v>
+        <v>0.0248801449822411</v>
       </c>
       <c r="H105" t="n">
-        <v>2.03226284178523</v>
+        <v>2.00564316218646</v>
       </c>
       <c r="I105" t="n">
-        <v>0.042127054067038</v>
+        <v>0.044894333356456</v>
       </c>
       <c r="J105" t="n">
-        <v>0.00389995951108268</v>
+        <v>0.00299282871791327</v>
       </c>
       <c r="K105" t="n">
-        <v>0.102407119808433</v>
+        <v>0.101409204128544</v>
       </c>
     </row>
     <row r="106">
@@ -4934,22 +4931,22 @@
         <v>168</v>
       </c>
       <c r="F106" t="n">
-        <v>0.00394406155856081</v>
+        <v>0.00378454681965123</v>
       </c>
       <c r="G106" t="n">
-        <v>0.00725877956080991</v>
+        <v>0.00720073328353307</v>
       </c>
       <c r="H106" t="n">
-        <v>0.543350507550163</v>
+        <v>0.525577975274531</v>
       </c>
       <c r="I106" t="n">
-        <v>0.586888495136163</v>
+        <v>0.599181462847226</v>
       </c>
       <c r="J106" t="n">
-        <v>-0.00725667953620094</v>
+        <v>-0.00726038891521454</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0219275104379987</v>
+        <v>0.021523067390845</v>
       </c>
     </row>
     <row r="107">
@@ -4969,22 +4966,22 @@
         <v>171</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.001440262326362</v>
+        <v>-0.00178116076651061</v>
       </c>
       <c r="G107" t="n">
-        <v>0.00831589675023863</v>
+        <v>0.00830565756107429</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.173193868276524</v>
+        <v>-0.214451505303841</v>
       </c>
       <c r="I107" t="n">
-        <v>0.862499043216917</v>
+        <v>0.830194980348754</v>
       </c>
       <c r="J107" t="n">
-        <v>-0.0212408570810864</v>
+        <v>-0.0218251277597061</v>
       </c>
       <c r="K107" t="n">
-        <v>0.0140949734642588</v>
+        <v>0.0132235121944032</v>
       </c>
     </row>
   </sheetData>
@@ -5053,22 +5050,22 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.812664060175769</v>
+        <v>0.845107319146642</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0388448992528048</v>
+        <v>0.0296081215601555</v>
       </c>
       <c r="H2" t="n">
-        <v>20.9207405813285</v>
+        <v>28.5430913754396</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.736529456657185</v>
+        <v>0.787076467238853</v>
       </c>
       <c r="K2" t="n">
-        <v>0.888798663694354</v>
+        <v>0.903138171054431</v>
       </c>
     </row>
     <row r="3">
@@ -5088,22 +5085,22 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.901648243357553</v>
+        <v>0.945381481354185</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0306525685463592</v>
+        <v>0.0223170525213842</v>
       </c>
       <c r="H3" t="n">
-        <v>29.4150958995131</v>
+        <v>42.3613951908891</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.841570312973044</v>
+        <v>0.901640862171184</v>
       </c>
       <c r="K3" t="n">
-        <v>0.961726173742062</v>
+        <v>0.989122100537187</v>
       </c>
     </row>
     <row r="4">
@@ -5123,22 +5120,22 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.883179390281311</v>
+        <v>0.893836690388062</v>
       </c>
       <c r="G4" t="n">
-        <v>0.027117977749933</v>
+        <v>0.0264214146258582</v>
       </c>
       <c r="H4" t="n">
-        <v>32.5680402287185</v>
+        <v>33.8300088411345</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.830029130557884</v>
+        <v>0.84205166930078</v>
       </c>
       <c r="K4" t="n">
-        <v>0.936329650004738</v>
+        <v>0.945621711475344</v>
       </c>
     </row>
     <row r="5">
@@ -5282,22 +5279,22 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.849310838620013</v>
+        <v>0.849316285345282</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0228058483189292</v>
+        <v>0.0228037834296259</v>
       </c>
       <c r="H9" t="n">
-        <v>37.2409228870944</v>
+        <v>37.2445339154502</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.804612197278029</v>
+        <v>0.804621691111964</v>
       </c>
       <c r="K9" t="n">
-        <v>0.894009479961998</v>
+        <v>0.8940108795786</v>
       </c>
     </row>
     <row r="10">
@@ -5317,22 +5314,22 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.946150335947188</v>
+        <v>0.946133452439971</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0142276235906836</v>
+        <v>0.0142460498145398</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5009395220953</v>
+        <v>66.4137402828907</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.918264706123855</v>
+        <v>0.918211707881509</v>
       </c>
       <c r="K10" t="n">
-        <v>0.97403596577052</v>
+        <v>0.974055196998432</v>
       </c>
     </row>
     <row r="11">
@@ -5352,22 +5349,22 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.919613408668942</v>
+        <v>0.919629120336894</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0157225250241463</v>
+        <v>0.0157244096080781</v>
       </c>
       <c r="H11" t="n">
-        <v>58.4901857212261</v>
+        <v>58.484174812163</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.888797825875585</v>
+        <v>0.888809843826905</v>
       </c>
       <c r="K11" t="n">
-        <v>0.950428991462298</v>
+        <v>0.950448396846883</v>
       </c>
     </row>
     <row r="12">
@@ -5387,22 +5384,22 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.793592426379081</v>
+        <v>0.793009600784079</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0316118539574112</v>
+        <v>0.0316075304175066</v>
       </c>
       <c r="H12" t="n">
-        <v>25.104267134988</v>
+        <v>25.089261650915</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.731634331138015</v>
+        <v>0.731059979525511</v>
       </c>
       <c r="K12" t="n">
-        <v>0.855550521620147</v>
+        <v>0.854959222042646</v>
       </c>
     </row>
     <row r="13">
@@ -5422,22 +5419,22 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.981970834237599</v>
+        <v>0.982768571730145</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0159851239392252</v>
+        <v>0.0160567223737252</v>
       </c>
       <c r="H13" t="n">
-        <v>61.4302921873496</v>
+        <v>61.206051201229</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.950640567028309</v>
+        <v>0.951297974167885</v>
       </c>
       <c r="K13" t="n">
-        <v>1.01330110144689</v>
+        <v>1.0142391692924</v>
       </c>
     </row>
     <row r="14">
@@ -5457,22 +5454,22 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.808962670590142</v>
+        <v>0.808334201526192</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0261620746103272</v>
+        <v>0.0262568165598019</v>
       </c>
       <c r="H14" t="n">
-        <v>30.9211972918544</v>
+        <v>30.7856894869624</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.757685946593051</v>
+        <v>0.756871786720305</v>
       </c>
       <c r="K14" t="n">
-        <v>0.860239394587233</v>
+        <v>0.859796616332078</v>
       </c>
     </row>
     <row r="15">
@@ -5492,22 +5489,22 @@
         <v>47</v>
       </c>
       <c r="F15" t="n">
-        <v>0.206459139770379</v>
+        <v>0.226756962929494</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0578648179515985</v>
+        <v>0.0536050270831915</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5679562656375</v>
+        <v>4.23014361279181</v>
       </c>
       <c r="I15" t="n">
-        <v>0.000359776535585388</v>
+        <v>0.0000233542167336065</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0930461806132793</v>
+        <v>0.121693040456145</v>
       </c>
       <c r="K15" t="n">
-        <v>0.319872098927479</v>
+        <v>0.331820885402844</v>
       </c>
     </row>
     <row r="16">
@@ -5527,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0732426563900277</v>
+        <v>-0.0762644703232212</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0529906531040555</v>
+        <v>0.0526389777777454</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.38218066960232</v>
+        <v>-1.4488212640684</v>
       </c>
       <c r="I16" t="n">
-        <v>0.16691623391101</v>
+        <v>0.147387503845175</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.177102427991232</v>
+        <v>-0.179434970950606</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0306171152111767</v>
+        <v>0.0269060303041639</v>
       </c>
     </row>
     <row r="17">
@@ -5562,22 +5559,22 @@
         <v>52</v>
       </c>
       <c r="F17" t="n">
-        <v>0.163860061782149</v>
+        <v>0.166714111434265</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0576874113396137</v>
+        <v>0.0576162544421799</v>
       </c>
       <c r="H17" t="n">
-        <v>2.84048214293206</v>
+        <v>2.89352567341164</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00450453948301677</v>
+        <v>0.0038094314664141</v>
       </c>
       <c r="J17" t="n">
-        <v>0.050794813195159</v>
+        <v>0.0537883278034965</v>
       </c>
       <c r="K17" t="n">
-        <v>0.27692531036914</v>
+        <v>0.279639895065033</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5594,22 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.072936523950231</v>
+        <v>0.0742818336514893</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0580266547544357</v>
+        <v>0.0579477869455639</v>
       </c>
       <c r="H18" t="n">
-        <v>1.25694862574609</v>
+        <v>1.28187524609472</v>
       </c>
       <c r="I18" t="n">
-        <v>0.208772239154301</v>
+        <v>0.199886412769109</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0407936295118028</v>
+        <v>-0.0392937417456163</v>
       </c>
       <c r="K18" t="n">
-        <v>0.186666677412265</v>
+        <v>0.187857409048595</v>
       </c>
     </row>
     <row r="19">
@@ -5632,22 +5629,22 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0918726655481303</v>
+        <v>0.088303398016549</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0579556826302687</v>
+        <v>0.0576141087940886</v>
       </c>
       <c r="H19" t="n">
-        <v>1.58522273189735</v>
+        <v>1.53266968568659</v>
       </c>
       <c r="I19" t="n">
-        <v>0.112915737463876</v>
+        <v>0.125357261969233</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0217183851066298</v>
+        <v>-0.024618180221237</v>
       </c>
       <c r="K19" t="n">
-        <v>0.20546371620289</v>
+        <v>0.201224976254335</v>
       </c>
     </row>
     <row r="20">
@@ -5667,22 +5664,22 @@
         <v>56</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.12498160634928</v>
+        <v>-0.146516999600665</v>
       </c>
       <c r="G20" t="n">
-        <v>0.060995773548535</v>
+        <v>0.0588448833794428</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.04902076124719</v>
+        <v>-2.4898851214624</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0404600848446877</v>
+        <v>0.0127784391154238</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.24453112571357</v>
+        <v>-0.261850851698832</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.00543208698499092</v>
+        <v>-0.0311831475024971</v>
       </c>
     </row>
     <row r="21">
@@ -5702,22 +5699,22 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0308204666064687</v>
+        <v>-0.0271717216797796</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0526539869114814</v>
+        <v>0.0525298432034875</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.585339656392632</v>
+        <v>-0.517262569669648</v>
       </c>
       <c r="I21" t="n">
-        <v>0.558319354949438</v>
+        <v>0.604972879249119</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.134020384595416</v>
+        <v>-0.130128322472151</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0723794513824782</v>
+        <v>0.075784879112592</v>
       </c>
     </row>
     <row r="22">
@@ -5737,22 +5734,22 @@
         <v>59</v>
       </c>
       <c r="F22" t="n">
-        <v>0.118704672071963</v>
+        <v>0.116943617101679</v>
       </c>
       <c r="G22" t="n">
-        <v>0.054104980680064</v>
+        <v>0.0541301729649281</v>
       </c>
       <c r="H22" t="n">
-        <v>2.1939694013365</v>
+        <v>2.16041462083355</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0282376093834316</v>
+        <v>0.0307405865994437</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0126608585548022</v>
+        <v>0.0108504276134966</v>
       </c>
       <c r="K22" t="n">
-        <v>0.224748485589124</v>
+        <v>0.223036806589862</v>
       </c>
     </row>
     <row r="23">
@@ -5772,22 +5769,22 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.109223781311902</v>
+        <v>0.108280572274633</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0541190817140848</v>
+        <v>0.0539099333714185</v>
       </c>
       <c r="H23" t="n">
-        <v>2.01821202157383</v>
+        <v>2.0085458375291</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0435691846701263</v>
+        <v>0.0445853202574842</v>
       </c>
       <c r="J23" t="n">
-        <v>0.00315233027591602</v>
+        <v>0.00261904445769935</v>
       </c>
       <c r="K23" t="n">
-        <v>0.215295232347889</v>
+        <v>0.213942100091568</v>
       </c>
     </row>
     <row r="24">
@@ -5807,22 +5804,22 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.184302795699782</v>
+        <v>0.18468548074122</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0561517580948181</v>
+        <v>0.0554967202925347</v>
       </c>
       <c r="H24" t="n">
-        <v>3.28222662928145</v>
+        <v>3.3278629758246</v>
       </c>
       <c r="I24" t="n">
-        <v>0.00102990794141156</v>
+        <v>0.000875148996766439</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0742473721653333</v>
+        <v>0.075913907707759</v>
       </c>
       <c r="K24" t="n">
-        <v>0.294358219234231</v>
+        <v>0.293457053774681</v>
       </c>
     </row>
     <row r="25">
@@ -5842,22 +5839,22 @@
         <v>63</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.135046770398262</v>
+        <v>-0.158551299479091</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0647899441557672</v>
+        <v>0.0620108905921871</v>
       </c>
       <c r="H25" t="n">
-        <v>-2.08437855840073</v>
+        <v>-2.556829904634</v>
       </c>
       <c r="I25" t="n">
-        <v>0.037125746618959</v>
+        <v>0.0105630854909882</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.262032727503927</v>
+        <v>-0.280090411689031</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.00806081329259706</v>
+        <v>-0.0370121872691507</v>
       </c>
     </row>
     <row r="26">
@@ -5877,22 +5874,22 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05671221924898</v>
+        <v>0.060723201324421</v>
       </c>
       <c r="G26" t="n">
-        <v>0.056768720308129</v>
+        <v>0.0563274181477254</v>
       </c>
       <c r="H26" t="n">
-        <v>0.999004714940863</v>
+        <v>1.0780398484654</v>
       </c>
       <c r="I26" t="n">
-        <v>0.317792407250948</v>
+        <v>0.281015973380713</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.0545524280033804</v>
+        <v>-0.0496765095872487</v>
       </c>
       <c r="K26" t="n">
-        <v>0.16797686650134</v>
+        <v>0.171122912236091</v>
       </c>
     </row>
     <row r="27">
@@ -5912,22 +5909,22 @@
         <v>66</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0471434238102567</v>
+        <v>0.0452313103479309</v>
       </c>
       <c r="G27" t="n">
-        <v>0.057264833837959</v>
+        <v>0.0571459215800394</v>
       </c>
       <c r="H27" t="n">
-        <v>0.823252608112989</v>
+        <v>0.791505484509149</v>
       </c>
       <c r="I27" t="n">
-        <v>0.410364357828497</v>
+        <v>0.428649076957701</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.0650935880928135</v>
+        <v>-0.0667726378122965</v>
       </c>
       <c r="K27" t="n">
-        <v>0.159380435713327</v>
+        <v>0.157235258508158</v>
       </c>
     </row>
     <row r="28">
@@ -5947,22 +5944,22 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0410440583488545</v>
+        <v>0.040052722992164</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0596826378348988</v>
+        <v>0.0595163543269016</v>
       </c>
       <c r="H28" t="n">
-        <v>0.68770516582051</v>
+        <v>0.672970033953508</v>
       </c>
       <c r="I28" t="n">
-        <v>0.491638466268334</v>
+        <v>0.500966355254573</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.0759317623098946</v>
+        <v>-0.0765971879796878</v>
       </c>
       <c r="K28" t="n">
-        <v>0.158019879007604</v>
+        <v>0.156702633964016</v>
       </c>
     </row>
     <row r="29">
@@ -5982,22 +5979,22 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0672993600255953</v>
+        <v>0.0677019459656205</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0629164735016256</v>
+        <v>0.0618959580539731</v>
       </c>
       <c r="H29" t="n">
-        <v>1.06966198644074</v>
+        <v>1.09380237569931</v>
       </c>
       <c r="I29" t="n">
-        <v>0.284771482845618</v>
+        <v>0.274041661966255</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.0560146620718595</v>
+        <v>-0.0536119026087687</v>
       </c>
       <c r="K29" t="n">
-        <v>0.19061338212305</v>
+        <v>0.18901579454001</v>
       </c>
     </row>
     <row r="30">
@@ -6017,22 +6014,22 @@
         <v>70</v>
       </c>
       <c r="F30" t="n">
-        <v>0.196071473564556</v>
+        <v>0.209181624090536</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0572826171231451</v>
+        <v>0.0536032359252613</v>
       </c>
       <c r="H30" t="n">
-        <v>3.42287911083121</v>
+        <v>3.9024066454159</v>
       </c>
       <c r="I30" t="n">
-        <v>0.000619616271231749</v>
+        <v>0.0000952409757302153</v>
       </c>
       <c r="J30" t="n">
-        <v>0.083799607062994</v>
+        <v>0.10412121222222</v>
       </c>
       <c r="K30" t="n">
-        <v>0.308343340066118</v>
+        <v>0.314242035958851</v>
       </c>
     </row>
     <row r="31">
@@ -6052,22 +6049,22 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.021937032138123</v>
+        <v>-0.0235589523447195</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0538695707164049</v>
+        <v>0.0541965958787342</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.407224929517444</v>
+        <v>-0.434694319130911</v>
       </c>
       <c r="I31" t="n">
-        <v>0.683842793381411</v>
+        <v>0.663784322430796</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.12751945060491</v>
+        <v>-0.12978232835171</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0836453863286642</v>
+        <v>0.0826644236622715</v>
       </c>
     </row>
     <row r="32">
@@ -6087,22 +6084,22 @@
         <v>73</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0112949162822345</v>
+        <v>0.0139689785145762</v>
       </c>
       <c r="G32" t="n">
-        <v>0.056050078241328</v>
+        <v>0.0556687036920267</v>
       </c>
       <c r="H32" t="n">
-        <v>0.201514728197227</v>
+        <v>0.250930551425377</v>
       </c>
       <c r="I32" t="n">
-        <v>0.840296114208602</v>
+        <v>0.801867803303513</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.0985612184014205</v>
+        <v>-0.095139675787828</v>
       </c>
       <c r="K32" t="n">
-        <v>0.12115105096589</v>
+        <v>0.12307763281698</v>
       </c>
     </row>
     <row r="33">
@@ -6122,22 +6119,22 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.0540550578026643</v>
+        <v>-0.0528336407907153</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0506372036134648</v>
+        <v>0.0506905107575447</v>
       </c>
       <c r="H33" t="n">
-        <v>-1.06749689843241</v>
+        <v>-1.04227872241062</v>
       </c>
       <c r="I33" t="n">
-        <v>0.285747513459666</v>
+        <v>0.297282474273506</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.153302153162877</v>
+        <v>-0.152185216233443</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0451920375575482</v>
+        <v>0.0465179346520124</v>
       </c>
     </row>
     <row r="34">
@@ -6157,22 +6154,22 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.0284827186062457</v>
+        <v>-0.0331639291449882</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0633499484325948</v>
+        <v>0.0619189031079817</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.449609183763609</v>
+        <v>-0.535602658967536</v>
       </c>
       <c r="I34" t="n">
-        <v>0.652992264930958</v>
+        <v>0.592233190694958</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.152646335956601</v>
+        <v>-0.154522749198858</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0956808987441097</v>
+        <v>0.088194890908881</v>
       </c>
     </row>
     <row r="35">
@@ -6192,22 +6189,22 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.20559144977498</v>
+        <v>0.200518132474638</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0541792327148497</v>
+        <v>0.0532220725443221</v>
       </c>
       <c r="H35" t="n">
-        <v>3.79465414095151</v>
+        <v>3.76757467134808</v>
       </c>
       <c r="I35" t="n">
-        <v>0.00014784940738144</v>
+        <v>0.000164841242395797</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0994021049438604</v>
+        <v>0.0962047871051883</v>
       </c>
       <c r="K35" t="n">
-        <v>0.3117807946061</v>
+        <v>0.304831477844087</v>
       </c>
     </row>
     <row r="36">
@@ -6227,22 +6224,22 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.0035628981539072</v>
+        <v>-0.00908138599734717</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0625713748254346</v>
+        <v>0.0611926508031875</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.0569413436071557</v>
+        <v>-0.14840648146712</v>
       </c>
       <c r="I36" t="n">
-        <v>0.954591920284543</v>
+        <v>0.882021985243878</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.126200539274915</v>
+        <v>-0.129016777690131</v>
       </c>
       <c r="K36" t="n">
-        <v>0.119074742967101</v>
+        <v>0.110854005695436</v>
       </c>
     </row>
     <row r="37">
@@ -6262,22 +6259,22 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.223151208343473</v>
+        <v>-0.186566420152568</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0601587893896118</v>
+        <v>0.0586351461672898</v>
       </c>
       <c r="H37" t="n">
-        <v>-3.70936999576668</v>
+        <v>-3.18181896605634</v>
       </c>
       <c r="I37" t="n">
-        <v>0.000207775609975203</v>
+        <v>0.00146353268204136</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.341060268900643</v>
+        <v>-0.301489194868698</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.105242147786303</v>
+        <v>-0.0716436454364387</v>
       </c>
     </row>
     <row r="38">
@@ -6297,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.0436784264937535</v>
+        <v>-0.0436953585497766</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0487289658542043</v>
+        <v>0.0487284787878025</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.89635447270599</v>
+        <v>-0.896710909857383</v>
       </c>
       <c r="I38" t="n">
-        <v>0.370063474565779</v>
+        <v>0.369873197520354</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.139185444571876</v>
+        <v>-0.139201421995293</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0518285915843689</v>
+        <v>0.0518107048957403</v>
       </c>
     </row>
     <row r="39">
@@ -6332,22 +6329,22 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0306154952105854</v>
+        <v>0.0306217126706574</v>
       </c>
       <c r="G39" t="n">
-        <v>0.051773238723562</v>
+        <v>0.0517733030527761</v>
       </c>
       <c r="H39" t="n">
-        <v>0.591338227342774</v>
+        <v>0.59145758267427</v>
       </c>
       <c r="I39" t="n">
-        <v>0.554293820930183</v>
+        <v>0.55421386801279</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.0708581880505905</v>
+        <v>-0.0708520966734615</v>
       </c>
       <c r="K39" t="n">
-        <v>0.132089178471761</v>
+        <v>0.132095522014776</v>
       </c>
     </row>
     <row r="40">
@@ -6367,22 +6364,22 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.0596473022306137</v>
+        <v>-0.0596773838445871</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0571686014825721</v>
+        <v>0.0571525696683589</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.04335772930876</v>
+        <v>-1.0441767393991</v>
       </c>
       <c r="I40" t="n">
-        <v>0.296782643252242</v>
+        <v>0.296403626640642</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.171695702182978</v>
+        <v>-0.171694362018487</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0524010977217508</v>
+        <v>0.0523395943293126</v>
       </c>
     </row>
     <row r="41">
@@ -6402,22 +6399,22 @@
         <v>84</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.18032631698524</v>
+        <v>-0.180345623815158</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0591784692601711</v>
+        <v>0.0591739971674772</v>
       </c>
       <c r="H41" t="n">
-        <v>-3.04716088874244</v>
+        <v>-3.04771745104079</v>
       </c>
       <c r="I41" t="n">
-        <v>0.00231014024245635</v>
+        <v>0.00230586626399076</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.296313985395386</v>
+        <v>-0.296324527084689</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0643386485750939</v>
+        <v>-0.064366720545628</v>
       </c>
     </row>
     <row r="42">
@@ -6437,22 +6434,22 @@
         <v>86</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3509827154222</v>
+        <v>0.351042141269145</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0631824166962026</v>
+        <v>0.0631814215543516</v>
       </c>
       <c r="H42" t="n">
-        <v>5.5550694920363</v>
+        <v>5.55609754628839</v>
       </c>
       <c r="I42" t="n">
-        <v>0.000000027750133968496</v>
+        <v>0.0000000275872740207461</v>
       </c>
       <c r="J42" t="n">
-        <v>0.227147454241441</v>
+        <v>0.227208830530573</v>
       </c>
       <c r="K42" t="n">
-        <v>0.474817976602959</v>
+        <v>0.474875452007717</v>
       </c>
     </row>
     <row r="43">
@@ -6472,22 +6469,22 @@
         <v>88</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0688260420608703</v>
+        <v>0.0688341440809382</v>
       </c>
       <c r="G43" t="n">
-        <v>0.057801016230073</v>
+        <v>0.0577997370438026</v>
       </c>
       <c r="H43" t="n">
-        <v>1.19074103795879</v>
+        <v>1.19090756466199</v>
       </c>
       <c r="I43" t="n">
-        <v>0.233755262157346</v>
+        <v>0.233689874529386</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.044461868019888</v>
+        <v>-0.0444512588408005</v>
       </c>
       <c r="K43" t="n">
-        <v>0.182113952141629</v>
+        <v>0.182119547002677</v>
       </c>
     </row>
     <row r="44">
@@ -6507,22 +6504,22 @@
         <v>90</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.104903219130554</v>
+        <v>-0.104898112711135</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0562657296183431</v>
+        <v>0.0562613812273306</v>
       </c>
       <c r="H44" t="n">
-        <v>-1.86442475450198</v>
+        <v>-1.86447809177102</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0622620792668893</v>
+        <v>0.0622545953641589</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.215182022746375</v>
+        <v>-0.215168393637181</v>
       </c>
       <c r="K44" t="n">
-        <v>0.00537558448526693</v>
+        <v>0.00537216821491075</v>
       </c>
     </row>
     <row r="45">
@@ -6542,22 +6539,22 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.090424033402828</v>
+        <v>0.0902179359274964</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0537567942519502</v>
+        <v>0.0536764455288223</v>
       </c>
       <c r="H45" t="n">
-        <v>1.68209497350277</v>
+        <v>1.68077328963694</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0925504249296512</v>
+        <v>0.0928069586885272</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.0149373472553242</v>
+        <v>-0.0149859641271212</v>
       </c>
       <c r="K45" t="n">
-        <v>0.19578541406098</v>
+        <v>0.195421835982114</v>
       </c>
     </row>
     <row r="46">
@@ -6577,22 +6574,22 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.301729180389364</v>
+        <v>0.297174029161146</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0517793005122671</v>
+        <v>0.0521374848874078</v>
       </c>
       <c r="H46" t="n">
-        <v>5.82721623127915</v>
+        <v>5.69981520594829</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0000000056359568123554</v>
+        <v>0.0000000119937368925349</v>
       </c>
       <c r="J46" t="n">
-        <v>0.200243616240644</v>
+        <v>0.194986436537326</v>
       </c>
       <c r="K46" t="n">
-        <v>0.403214744538084</v>
+        <v>0.399361621784967</v>
       </c>
     </row>
     <row r="47">
@@ -6612,22 +6609,22 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.258636323130043</v>
+        <v>0.253024773823712</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0635437136147344</v>
+        <v>0.0629540397677182</v>
       </c>
       <c r="H47" t="n">
-        <v>4.07021101565066</v>
+        <v>4.01919836689272</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0000469705733960879</v>
+        <v>0.0000583964901184064</v>
       </c>
       <c r="J47" t="n">
-        <v>0.134092933001236</v>
+        <v>0.129637123197682</v>
       </c>
       <c r="K47" t="n">
-        <v>0.38317971325885</v>
+        <v>0.376412424449742</v>
       </c>
     </row>
     <row r="48">
@@ -6647,22 +6644,22 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.200495556988673</v>
+        <v>0.210032510314794</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0530159954842225</v>
+        <v>0.0521286748649881</v>
       </c>
       <c r="H48" t="n">
-        <v>3.78179368617799</v>
+        <v>4.0291166207231</v>
       </c>
       <c r="I48" t="n">
-        <v>0.000155702385194578</v>
+        <v>0.0000559868405844988</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0965861152350589</v>
+        <v>0.107862185017619</v>
       </c>
       <c r="K48" t="n">
-        <v>0.304404998742287</v>
+        <v>0.312202835611969</v>
       </c>
     </row>
     <row r="49">
@@ -6682,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.146930775061437</v>
+        <v>0.154793306502401</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0700991734961917</v>
+        <v>0.0695446334841195</v>
       </c>
       <c r="H49" t="n">
-        <v>2.0960414757161</v>
+        <v>2.22581238475788</v>
       </c>
       <c r="I49" t="n">
-        <v>0.036078511855312</v>
+        <v>0.0260267509115812</v>
       </c>
       <c r="J49" t="n">
-        <v>0.00953891966287632</v>
+        <v>0.0184883295554883</v>
       </c>
       <c r="K49" t="n">
-        <v>0.284322630459997</v>
+        <v>0.291098283449313</v>
       </c>
     </row>
     <row r="50">
@@ -6717,22 +6714,22 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.274159134879537</v>
+        <v>-0.269276177474365</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0445522895415811</v>
+        <v>0.04446112776014</v>
       </c>
       <c r="H50" t="n">
-        <v>-6.15364861605287</v>
+        <v>-6.0564405592018</v>
       </c>
       <c r="I50" t="n">
-        <v>0.000000000757203633128256</v>
+        <v>0.00000000139166522750145</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.361480017809837</v>
+        <v>-0.356418386596273</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.186838251949238</v>
+        <v>-0.182133968352456</v>
       </c>
     </row>
     <row r="51">
@@ -6752,22 +6749,22 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.247846039590397</v>
+        <v>-0.241465084119423</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0389233593956592</v>
+        <v>0.0387825461577003</v>
       </c>
       <c r="H51" t="n">
-        <v>-6.36753978686734</v>
+        <v>-6.22612767964127</v>
       </c>
       <c r="I51" t="n">
-        <v>0.000000000192084126382497</v>
+        <v>0.000000000478104444923133</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.324134422163197</v>
+        <v>-0.317477477817278</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.171557657017596</v>
+        <v>-0.165452690421568</v>
       </c>
     </row>
     <row r="52">
@@ -6787,22 +6784,22 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00827732874144066</v>
+        <v>-0.00563302267682986</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0612477905733542</v>
+        <v>0.057063507799269</v>
       </c>
       <c r="H52" t="n">
-        <v>0.135144936069608</v>
+        <v>-0.0987149737910438</v>
       </c>
       <c r="I52" t="n">
-        <v>0.892497282203718</v>
+        <v>0.921364579570862</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.111766134914985</v>
+        <v>-0.117475442794918</v>
       </c>
       <c r="K52" t="n">
-        <v>0.128320792397867</v>
+        <v>0.106209397441258</v>
       </c>
     </row>
     <row r="53">
@@ -6822,22 +6819,22 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.339577125298633</v>
+        <v>0.285793619124776</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0631357083859798</v>
+        <v>0.050044080755372</v>
       </c>
       <c r="H53" t="n">
-        <v>5.37852720718093</v>
+        <v>5.71083762177202</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0000000750976347774213</v>
+        <v>0.000000011242147213153</v>
       </c>
       <c r="J53" t="n">
-        <v>0.21583341072369</v>
+        <v>0.187709023204833</v>
       </c>
       <c r="K53" t="n">
-        <v>0.463320839873577</v>
+        <v>0.383878215044719</v>
       </c>
     </row>
     <row r="54">
@@ -6857,22 +6854,22 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.187030445250239</v>
+        <v>0.106253854712566</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0552756689673429</v>
+        <v>0.0421962569789709</v>
       </c>
       <c r="H54" t="n">
-        <v>3.38359442308581</v>
+        <v>2.51808720298389</v>
       </c>
       <c r="I54" t="n">
-        <v>0.000715436020340965</v>
+        <v>0.011799410378118</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0786921248528887</v>
+        <v>0.0235507107513862</v>
       </c>
       <c r="K54" t="n">
-        <v>0.295368765647589</v>
+        <v>0.188956998673746</v>
       </c>
     </row>
     <row r="55">
@@ -6892,22 +6889,22 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.219994164582332</v>
+        <v>0.201055970916115</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0479000792594967</v>
+        <v>0.0472328592610375</v>
       </c>
       <c r="H55" t="n">
-        <v>4.59277245431103</v>
+        <v>4.25669701266565</v>
       </c>
       <c r="I55" t="n">
-        <v>0.000004373959037407</v>
+        <v>0.0000207469216793044</v>
       </c>
       <c r="J55" t="n">
-        <v>0.126111734377104</v>
+        <v>0.108481267877633</v>
       </c>
       <c r="K55" t="n">
-        <v>0.313876594787559</v>
+        <v>0.293630673954598</v>
       </c>
     </row>
     <row r="56">
@@ -7051,22 +7048,22 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.27867109940257</v>
+        <v>0.278661847447291</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0387385087520696</v>
+        <v>0.0387352490333392</v>
       </c>
       <c r="H60" t="n">
-        <v>7.19364550623498</v>
+        <v>7.19401202784183</v>
       </c>
       <c r="I60" t="n">
-        <v>0.000000000000630828722592014</v>
+        <v>0.000000000000629052365752614</v>
       </c>
       <c r="J60" t="n">
-        <v>0.202745017433724</v>
+        <v>0.202742154409756</v>
       </c>
       <c r="K60" t="n">
-        <v>0.354597181371416</v>
+        <v>0.354581540484825</v>
       </c>
     </row>
     <row r="61">
@@ -7086,22 +7083,22 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.104799541787024</v>
+        <v>0.104831490174022</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0269229428941575</v>
+        <v>0.0269573286606499</v>
       </c>
       <c r="H61" t="n">
-        <v>3.89257378730937</v>
+        <v>3.88879371148694</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0000991863181312169</v>
+        <v>0.000100743700421457</v>
       </c>
       <c r="J61" t="n">
-        <v>0.0520315433566471</v>
+        <v>0.0519960968797387</v>
       </c>
       <c r="K61" t="n">
-        <v>0.157567540217401</v>
+        <v>0.157666883468305</v>
       </c>
     </row>
     <row r="62">
@@ -7121,22 +7118,22 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.15431117859629</v>
+        <v>0.15428228102839</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0289172905360616</v>
+        <v>0.028921249888855</v>
       </c>
       <c r="H62" t="n">
-        <v>5.33629450531869</v>
+        <v>5.33456477922983</v>
       </c>
       <c r="I62" t="n">
-        <v>0.0000000948652734145128</v>
+        <v>0.0000000957739927365253</v>
       </c>
       <c r="J62" t="n">
-        <v>0.0976343306151282</v>
+        <v>0.0975976728583517</v>
       </c>
       <c r="K62" t="n">
-        <v>0.210988026577452</v>
+        <v>0.210966889198429</v>
       </c>
     </row>
     <row r="63">
@@ -7156,22 +7153,22 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.370211060793763</v>
+        <v>0.371135773064276</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0501738550893549</v>
+        <v>0.0501301493969885</v>
       </c>
       <c r="H63" t="n">
-        <v>7.37856519365419</v>
+        <v>7.40344438483903</v>
       </c>
       <c r="I63" t="n">
-        <v>0.000000000000160094160150948</v>
+        <v>0.000000000000132782673745169</v>
       </c>
       <c r="J63" t="n">
-        <v>0.271872111853096</v>
+        <v>0.272882485706566</v>
       </c>
       <c r="K63" t="n">
-        <v>0.46855000973443</v>
+        <v>0.469389060421986</v>
       </c>
     </row>
     <row r="64">
@@ -7191,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.035733280706714</v>
+        <v>0.0341659344194916</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0313938503263397</v>
+        <v>0.0315600835635977</v>
       </c>
       <c r="H64" t="n">
-        <v>1.13822549114766</v>
+        <v>1.0825679327066</v>
       </c>
       <c r="I64" t="n">
-        <v>0.255026337044108</v>
+        <v>0.279000247261731</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.0257975352689528</v>
+        <v>-0.0276906927142344</v>
       </c>
       <c r="K64" t="n">
-        <v>0.0972640966823808</v>
+        <v>0.0960225615532176</v>
       </c>
     </row>
     <row r="65">
@@ -7226,22 +7223,22 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.345579397591665</v>
+        <v>0.346595818643014</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0423282836887099</v>
+        <v>0.042448565583191</v>
       </c>
       <c r="H65" t="n">
-        <v>8.16426671426417</v>
+        <v>8.1650772854445</v>
       </c>
       <c r="I65" t="n">
         <v>0.000000000000000222044604925031</v>
       </c>
       <c r="J65" t="n">
-        <v>0.2626174860344</v>
+        <v>0.263398158904573</v>
       </c>
       <c r="K65" t="n">
-        <v>0.428541309148931</v>
+        <v>0.429793478381455</v>
       </c>
     </row>
     <row r="66">
@@ -7261,22 +7258,22 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.771486639814953</v>
+        <v>0.771518598490076</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0401888491984425</v>
+        <v>0.0401874722943775</v>
       </c>
       <c r="H66" t="n">
-        <v>19.1965347404088</v>
+        <v>19.1979876922495</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0.692717942805894</v>
+        <v>0.692752600163395</v>
       </c>
       <c r="K66" t="n">
-        <v>0.850255336824012</v>
+        <v>0.850284596816758</v>
       </c>
     </row>
     <row r="67">
@@ -7327,22 +7324,22 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.908176429064985</v>
+        <v>0.925442551752189</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0311735306796997</v>
+        <v>0.028293131187144</v>
       </c>
       <c r="H68" t="n">
-        <v>29.1329345525944</v>
+        <v>32.7090892001624</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0.847077431661819</v>
+        <v>0.86998903361552</v>
       </c>
       <c r="K68" t="n">
-        <v>0.969275426468151</v>
+        <v>0.980896069888858</v>
       </c>
     </row>
     <row r="69">
@@ -7362,22 +7359,22 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.919127846731679</v>
+        <v>0.913507561609152</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0294427103972102</v>
+        <v>0.0303837386358927</v>
       </c>
       <c r="H69" t="n">
-        <v>31.2175011855828</v>
+        <v>30.0656733707554</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0.861421194745904</v>
+        <v>0.853956528167124</v>
       </c>
       <c r="K69" t="n">
-        <v>0.976834498717454</v>
+        <v>0.97305859505118</v>
       </c>
     </row>
     <row r="70">
@@ -7397,22 +7394,22 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.926699745519181</v>
+        <v>0.917808730692659</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0277511336511434</v>
+        <v>0.0281140337490567</v>
       </c>
       <c r="H70" t="n">
-        <v>33.3932212344413</v>
+        <v>32.645928324798</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0.872308523032782</v>
+        <v>0.862706237084364</v>
       </c>
       <c r="K70" t="n">
-        <v>0.98109096800558</v>
+        <v>0.972911224300954</v>
       </c>
     </row>
     <row r="71">
@@ -7432,22 +7429,22 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.957630629463819</v>
+        <v>0.952055128737943</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0196576933157354</v>
+        <v>0.0194793436413378</v>
       </c>
       <c r="H71" t="n">
-        <v>48.7153102901073</v>
+        <v>48.8751133645774</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0.919102258545844</v>
+        <v>0.913876316758442</v>
       </c>
       <c r="K71" t="n">
-        <v>0.996159000381794</v>
+        <v>0.990233940717444</v>
       </c>
     </row>
     <row r="72">
@@ -7467,22 +7464,22 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.970548696389287</v>
+        <v>0.963875175959535</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0198061266697217</v>
+        <v>0.0213390081267899</v>
       </c>
       <c r="H72" t="n">
-        <v>49.0024482107852</v>
+        <v>45.1696334821413</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0.931729401443394</v>
+        <v>0.922051488565219</v>
       </c>
       <c r="K72" t="n">
-        <v>1.00936799133518</v>
+        <v>1.00569886335385</v>
       </c>
     </row>
     <row r="73">
@@ -7564,22 +7561,22 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.159376469197838</v>
+        <v>-0.159233824950644</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0614938830087795</v>
+        <v>0.0614626665756011</v>
       </c>
       <c r="H75" t="n">
-        <v>-2.59174508747617</v>
+        <v>-2.59074058810613</v>
       </c>
       <c r="I75" t="n">
-        <v>0.00954904975429649</v>
+        <v>0.00957696529986607</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.279902265164566</v>
+        <v>-0.279698437832615</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.038850673231111</v>
+        <v>-0.0387692120686716</v>
       </c>
     </row>
     <row r="76">
@@ -7630,22 +7627,22 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>2.74630862478401</v>
+        <v>2.58329301296446</v>
       </c>
       <c r="G77" t="n">
-        <v>0.15194024732004</v>
+        <v>0.13843069734973</v>
       </c>
       <c r="H77" t="n">
-        <v>18.0749253290296</v>
+        <v>18.6612728420927</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.44851121223463</v>
+        <v>2.31197383180422</v>
       </c>
       <c r="K77" t="n">
-        <v>3.0441060373334</v>
+        <v>2.85461219412469</v>
       </c>
     </row>
     <row r="78">
@@ -7665,22 +7662,22 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>2.56836523095085</v>
+        <v>2.61685195392587</v>
       </c>
       <c r="G78" t="n">
-        <v>0.141438097350056</v>
+        <v>0.148346160466926</v>
       </c>
       <c r="H78" t="n">
-        <v>18.1589351035614</v>
+        <v>17.640173130799</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.29115165410287</v>
+        <v>2.3260988221659</v>
       </c>
       <c r="K78" t="n">
-        <v>2.84557880779883</v>
+        <v>2.90760508568585</v>
       </c>
     </row>
     <row r="79">
@@ -7700,22 +7697,22 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>2.62478168902685</v>
+        <v>2.9341265830409</v>
       </c>
       <c r="G79" t="n">
-        <v>0.147922045549144</v>
+        <v>0.171907104899008</v>
       </c>
       <c r="H79" t="n">
-        <v>17.7443577073495</v>
+        <v>17.0680937519403</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.33485980723104</v>
+        <v>2.5971948487523</v>
       </c>
       <c r="K79" t="n">
-        <v>2.91470357082267</v>
+        <v>3.2710583173295</v>
       </c>
     </row>
     <row r="80">
@@ -7735,22 +7732,22 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>1.27561071391761</v>
+        <v>1.27928668089138</v>
       </c>
       <c r="G80" t="n">
-        <v>0.145705645215176</v>
+        <v>0.145632634422693</v>
       </c>
       <c r="H80" t="n">
-        <v>8.75471030675445</v>
+        <v>8.78434072117587</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0.990032896951691</v>
+        <v>0.993851962449213</v>
       </c>
       <c r="K80" t="n">
-        <v>1.56118853088352</v>
+        <v>1.56472139933355</v>
       </c>
     </row>
     <row r="81">
@@ -7770,22 +7767,22 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.676052216285811</v>
+        <v>0.670142263985491</v>
       </c>
       <c r="G81" t="n">
-        <v>0.142363815502667</v>
+        <v>0.141932253112541</v>
       </c>
       <c r="H81" t="n">
-        <v>4.74876438158645</v>
+        <v>4.72156433290832</v>
       </c>
       <c r="I81" t="n">
-        <v>0.00000204663213132505</v>
+        <v>0.00000234037578938917</v>
       </c>
       <c r="J81" t="n">
-        <v>0.397024265198878</v>
+        <v>0.391960159640287</v>
       </c>
       <c r="K81" t="n">
-        <v>0.955080167372744</v>
+        <v>0.948324368330695</v>
       </c>
     </row>
     <row r="82">
@@ -7805,22 +7802,22 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.47397611712472</v>
+        <v>0.468426248058018</v>
       </c>
       <c r="G82" t="n">
-        <v>0.133113162107157</v>
+        <v>0.132506746409525</v>
       </c>
       <c r="H82" t="n">
-        <v>3.5607006070757</v>
+        <v>3.53511244333403</v>
       </c>
       <c r="I82" t="n">
-        <v>0.00036986661449312</v>
+        <v>0.00040760167155085</v>
       </c>
       <c r="J82" t="n">
-        <v>0.213079113526451</v>
+        <v>0.208717797386767</v>
       </c>
       <c r="K82" t="n">
-        <v>0.73487312072299</v>
+        <v>0.728134698729269</v>
       </c>
     </row>
     <row r="83">
@@ -7840,22 +7837,22 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.549831972013878</v>
+        <v>0.553807155654928</v>
       </c>
       <c r="G83" t="n">
-        <v>0.127995931040744</v>
+        <v>0.127713786496574</v>
       </c>
       <c r="H83" t="n">
-        <v>4.29569883622984</v>
+        <v>4.33631458941815</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0000174143867526233</v>
+        <v>0.0000144891535271974</v>
       </c>
       <c r="J83" t="n">
-        <v>0.298964557006348</v>
+        <v>0.303492733792406</v>
       </c>
       <c r="K83" t="n">
-        <v>0.800699387021409</v>
+        <v>0.804121577517451</v>
       </c>
     </row>
     <row r="84">
@@ -7875,22 +7872,22 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>3.36727395444667</v>
+        <v>3.36727303487507</v>
       </c>
       <c r="G84" t="n">
-        <v>0.149174924647411</v>
+        <v>0.149174796991767</v>
       </c>
       <c r="H84" t="n">
-        <v>22.5726539658427</v>
+        <v>22.5726671178973</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>3.07489647474127</v>
+        <v>3.07489580537013</v>
       </c>
       <c r="K84" t="n">
-        <v>3.65965143415208</v>
+        <v>3.65965026438</v>
       </c>
     </row>
     <row r="85">
@@ -7910,22 +7907,22 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>3.35725283377211</v>
+        <v>3.35725184739864</v>
       </c>
       <c r="G85" t="n">
-        <v>0.149612487837596</v>
+        <v>0.149618278484998</v>
       </c>
       <c r="H85" t="n">
-        <v>22.4396564905492</v>
+        <v>22.4387814202478</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>3.06401774597299</v>
+        <v>3.06400541013916</v>
       </c>
       <c r="K85" t="n">
-        <v>3.65048792157124</v>
+        <v>3.65049828465812</v>
       </c>
     </row>
     <row r="86">
@@ -7945,22 +7942,22 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>3.34635947954298</v>
+        <v>3.34635859122847</v>
       </c>
       <c r="G86" t="n">
-        <v>0.152586581549947</v>
+        <v>0.152583925638502</v>
       </c>
       <c r="H86" t="n">
-        <v>21.9308896336182</v>
+        <v>21.9312655459958</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>3.047295275181</v>
+        <v>3.04729959235726</v>
       </c>
       <c r="K86" t="n">
-        <v>3.64542368390496</v>
+        <v>3.64541759009967</v>
       </c>
     </row>
     <row r="87">
@@ -7980,22 +7977,22 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>2.78252008918256</v>
+        <v>2.78251995234622</v>
       </c>
       <c r="G87" t="n">
-        <v>0.111818265589717</v>
+        <v>0.111818186259006</v>
       </c>
       <c r="H87" t="n">
-        <v>24.8843073580856</v>
+        <v>24.8843237888068</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.56336031581298</v>
+        <v>2.56336033446198</v>
       </c>
       <c r="K87" t="n">
-        <v>3.00167986255214</v>
+        <v>3.00167957023047</v>
       </c>
     </row>
     <row r="88">
@@ -8015,22 +8012,22 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>2.50595658374217</v>
+        <v>2.50595630458078</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0885925769725534</v>
+        <v>0.0886245903874495</v>
       </c>
       <c r="H88" t="n">
-        <v>28.2863042184508</v>
+        <v>28.2760833491611</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>2.33231832357837</v>
+        <v>2.33225529927677</v>
       </c>
       <c r="K88" t="n">
-        <v>2.67959484390596</v>
+        <v>2.6796573098848</v>
       </c>
     </row>
     <row r="89">
@@ -8050,22 +8047,22 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>2.26893953089009</v>
+        <v>2.2689390638829</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0776652731600366</v>
+        <v>0.0776709402927297</v>
       </c>
       <c r="H89" t="n">
-        <v>29.2143378703468</v>
+        <v>29.2122002814903</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.11671839264695</v>
+        <v>2.11670681826379</v>
       </c>
       <c r="K89" t="n">
-        <v>2.42116066913323</v>
+        <v>2.42117130950201</v>
       </c>
     </row>
     <row r="90">
@@ -8085,22 +8082,22 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>1.94007159458785</v>
+        <v>1.94327945419446</v>
       </c>
       <c r="G90" t="n">
-        <v>0.141060108078924</v>
+        <v>0.140512406852776</v>
       </c>
       <c r="H90" t="n">
-        <v>13.7535099115504</v>
+        <v>13.8299492387926</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.66359886309783</v>
+        <v>1.66788019738198</v>
       </c>
       <c r="K90" t="n">
-        <v>2.21654432607787</v>
+        <v>2.21867871100693</v>
       </c>
     </row>
     <row r="91">
@@ -8151,22 +8148,22 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>2.07069939884622</v>
+        <v>2.07070023297478</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0684950332435395</v>
+        <v>0.068495093451626</v>
       </c>
       <c r="H92" t="n">
-        <v>30.2313803029146</v>
+        <v>30.2313659070659</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.93645160056901</v>
+        <v>1.93645231669189</v>
       </c>
       <c r="K92" t="n">
-        <v>2.20494719712343</v>
+        <v>2.20494814925768</v>
       </c>
     </row>
     <row r="93">
@@ -8403,22 +8400,22 @@
         <v>149</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.0372300162827333</v>
+        <v>-0.0408946259339504</v>
       </c>
       <c r="G100" t="n">
-        <v>0.017098963865239</v>
+        <v>0.0175563699094109</v>
       </c>
       <c r="H100" t="n">
-        <v>-2.17732586466362</v>
+        <v>-2.32933266643176</v>
       </c>
       <c r="I100" t="n">
-        <v>0.0294562626953678</v>
+        <v>0.0198414491125238</v>
       </c>
       <c r="J100" t="n">
-        <v>-0.0707433696315535</v>
+        <v>-0.0753044786556585</v>
       </c>
       <c r="K100" t="n">
-        <v>-0.00371666293391319</v>
+        <v>-0.0064847732122423</v>
       </c>
     </row>
     <row r="101">
@@ -8438,22 +8435,22 @@
         <v>153</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.0438663835742989</v>
+        <v>-0.0514336412721478</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0232507585390582</v>
+        <v>0.0232497393797976</v>
       </c>
       <c r="H101" t="n">
-        <v>-1.88666462217175</v>
+        <v>-2.21222442247417</v>
       </c>
       <c r="I101" t="n">
-        <v>0.0592054489311293</v>
+        <v>0.0269511621634595</v>
       </c>
       <c r="J101" t="n">
-        <v>-0.0894370329240901</v>
+        <v>-0.0970022931064937</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0017042657754923</v>
+        <v>-0.00586498943780179</v>
       </c>
     </row>
     <row r="102">
@@ -8473,22 +8470,22 @@
         <v>156</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.00929473469961548</v>
+        <v>-0.0109137429925637</v>
       </c>
       <c r="G102" t="n">
-        <v>0.00918584494382606</v>
+        <v>0.010217872878014</v>
       </c>
       <c r="H102" t="n">
-        <v>-1.01185408162834</v>
+        <v>-1.06810322685136</v>
       </c>
       <c r="I102" t="n">
-        <v>0.311607827173297</v>
+        <v>0.285473950458391</v>
       </c>
       <c r="J102" t="n">
-        <v>-0.0272986599570839</v>
+        <v>-0.0309404058320797</v>
       </c>
       <c r="K102" t="n">
-        <v>0.00870919055785295</v>
+        <v>0.00911291984695225</v>
       </c>
     </row>
     <row r="103">
@@ -8508,22 +8505,22 @@
         <v>159</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.0205685287565932</v>
+        <v>-0.0219427575809473</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0126206138177532</v>
+        <v>0.0130437305834031</v>
       </c>
       <c r="H103" t="n">
-        <v>-1.62975660721509</v>
+        <v>-1.68224553862431</v>
       </c>
       <c r="I103" t="n">
-        <v>0.103152948167868</v>
+        <v>0.0925212369795672</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.045304477302178</v>
+        <v>-0.047507999748461</v>
       </c>
       <c r="K103" t="n">
-        <v>0.00416741978899151</v>
+        <v>0.00362248458656641</v>
       </c>
     </row>
     <row r="104">
@@ -8543,22 +8540,22 @@
         <v>162</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.0295482814421489</v>
+        <v>-0.0300661604254023</v>
       </c>
       <c r="G104" t="n">
-        <v>0.014500015191725</v>
+        <v>0.0146125722491019</v>
       </c>
       <c r="H104" t="n">
-        <v>-2.03781037822717</v>
+        <v>-2.05755426990277</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0415689000740795</v>
+        <v>0.0396329402835538</v>
       </c>
       <c r="J104" t="n">
-        <v>-0.0579677889932135</v>
+        <v>-0.0587062757551316</v>
       </c>
       <c r="K104" t="n">
-        <v>-0.00112877389108424</v>
+        <v>-0.0014260450956731</v>
       </c>
     </row>
     <row r="105">
@@ -8578,22 +8575,22 @@
         <v>165</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0416632881371194</v>
+        <v>0.0410521377551325</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0202931232236627</v>
+        <v>0.020267595754189</v>
       </c>
       <c r="H105" t="n">
-        <v>2.0530742201643</v>
+        <v>2.02550604684562</v>
       </c>
       <c r="I105" t="n">
-        <v>0.0400653797906321</v>
+        <v>0.0428154281852009</v>
       </c>
       <c r="J105" t="n">
-        <v>0.00188949748490718</v>
+        <v>0.00132838002370518</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0814370787893315</v>
+        <v>0.0807758954865599</v>
       </c>
     </row>
     <row r="106">
@@ -8613,22 +8610,22 @@
         <v>168</v>
       </c>
       <c r="F106" t="n">
-        <v>0.00324469527005816</v>
+        <v>0.00311345853345911</v>
       </c>
       <c r="G106" t="n">
-        <v>0.00480211272036444</v>
+        <v>0.00474105395863277</v>
       </c>
       <c r="H106" t="n">
-        <v>0.675680780315359</v>
+        <v>0.656701771510099</v>
       </c>
       <c r="I106" t="n">
-        <v>0.499243341207319</v>
+        <v>0.511372695150577</v>
       </c>
       <c r="J106" t="n">
-        <v>-0.00616727271155781</v>
+        <v>-0.00617883647422217</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0126566632516741</v>
+        <v>0.0124057535411404</v>
       </c>
     </row>
     <row r="107">
@@ -8648,22 +8645,22 @@
         <v>171</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.00118487307781651</v>
+        <v>-0.00146531948268144</v>
       </c>
       <c r="G107" t="n">
-        <v>0.00596584824427608</v>
+        <v>0.00595754382462669</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.198609322480393</v>
+        <v>-0.245960336309109</v>
       </c>
       <c r="I107" t="n">
-        <v>0.842568360606665</v>
+        <v>0.805712936463829</v>
       </c>
       <c r="J107" t="n">
-        <v>-0.0128777207738291</v>
+        <v>-0.0131418908152688</v>
       </c>
       <c r="K107" t="n">
-        <v>0.0105079746181961</v>
+        <v>0.0102112518499059</v>
       </c>
     </row>
   </sheetData>
@@ -8741,52 +8738,52 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>3.12585087220823</v>
+        <v>3.46920090434473</v>
       </c>
       <c r="C2" t="n">
-        <v>2.41208056098414</v>
+        <v>2.7657755288532</v>
       </c>
       <c r="D2" t="n">
-        <v>2.35850585969507</v>
+        <v>2.46680889604771</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.338146521562285</v>
+        <v>-0.407182734305603</v>
       </c>
       <c r="F2" t="n">
-        <v>0.33767925905064</v>
+        <v>0.414800317143152</v>
       </c>
       <c r="G2" t="n">
-        <v>0.226469749540417</v>
+        <v>0.264759153621752</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.207874312314405</v>
+        <v>-0.263801985673783</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0569235923974705</v>
+        <v>0.0401946920882478</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0639100835158234</v>
+        <v>0.0451268764502005</v>
       </c>
       <c r="K2" t="n">
-        <v>0.063441323083477</v>
+        <v>0.0447974484019085</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.287125670300519</v>
+        <v>-0.261424231939793</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.356673894243265</v>
+        <v>-0.325249686307635</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.300576119364889</v>
+        <v>-0.273659088183842</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.37650221172058</v>
+        <v>-0.436026671457826</v>
       </c>
       <c r="P2" t="n">
-        <v>0.147696510420945</v>
+        <v>0.157815713786661</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0161609651397317</v>
+        <v>-0.0121629643227846</v>
       </c>
       <c r="R2" t="s">
         <v>191</v>
@@ -8797,52 +8794,52 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>2.41208056098414</v>
+        <v>2.7657755288532</v>
       </c>
       <c r="C3" t="n">
-        <v>3.46672165575753</v>
+        <v>3.45435128887363</v>
       </c>
       <c r="D3" t="n">
-        <v>2.75574105324737</v>
+        <v>2.75358989228896</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.395099400602068</v>
+        <v>-0.454520114344846</v>
       </c>
       <c r="F3" t="n">
-        <v>0.394553438640306</v>
+        <v>0.463023285846601</v>
       </c>
       <c r="G3" t="n">
-        <v>0.264613286230234</v>
+        <v>0.295538957424668</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.242885882180693</v>
+        <v>-0.294470513091191</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0665110412268852</v>
+        <v>0.0448675606915459</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0746742434991417</v>
+        <v>0.0503731404013233</v>
       </c>
       <c r="K3" t="n">
-        <v>0.074126531326944</v>
+        <v>0.0500054144110909</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.335485279307557</v>
+        <v>-0.29181633154565</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.416747276224641</v>
+        <v>-0.36306186917105</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.351201142178505</v>
+        <v>-0.305473561556941</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.439915210391285</v>
+        <v>-0.486717328293373</v>
       </c>
       <c r="P3" t="n">
-        <v>0.172572535919414</v>
+        <v>0.176162715735119</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0188829020341786</v>
+        <v>-0.0135769802327011</v>
       </c>
       <c r="R3" t="s">
         <v>192</v>
@@ -8853,52 +8850,52 @@
         <v>18</v>
       </c>
       <c r="B4" t="n">
-        <v>2.35850585969507</v>
+        <v>2.46680889604771</v>
       </c>
       <c r="C4" t="n">
-        <v>2.75574105324737</v>
+        <v>2.75358989228896</v>
       </c>
       <c r="D4" t="n">
-        <v>3.45450404249676</v>
+        <v>3.07398312901044</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.386323851099646</v>
+        <v>-0.405388741711583</v>
       </c>
       <c r="F4" t="n">
-        <v>0.385790015494479</v>
+        <v>0.41297276249936</v>
       </c>
       <c r="G4" t="n">
-        <v>0.25873596272943</v>
+        <v>0.263592660249664</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.23749114587062</v>
+        <v>-0.262639709455481</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0650337650430825</v>
+        <v>0.0400175996581176</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0730156544975284</v>
+        <v>0.0449280534763311</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0724801075558343</v>
+        <v>0.0446000768439001</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.328033818557652</v>
+        <v>-0.260272431785994</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.407490905936719</v>
+        <v>-0.323816679749932</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.343400616529015</v>
+        <v>-0.272453382892027</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.430144257310176</v>
+        <v>-0.434105596339736</v>
       </c>
       <c r="P4" t="n">
-        <v>0.168739528758655</v>
+        <v>0.157120398887722</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0184634940540658</v>
+        <v>-0.0121093759309447</v>
       </c>
       <c r="R4" t="s">
         <v>193</v>
@@ -8909,52 +8906,52 @@
         <v>21</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.338146521562285</v>
+        <v>-0.407182734305603</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.395099400602068</v>
+        <v>-0.454520114344846</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.386323851099646</v>
+        <v>-0.405388741711583</v>
       </c>
       <c r="E5" t="n">
-        <v>1.96458797387751</v>
+        <v>1.96460423509639</v>
       </c>
       <c r="F5" t="n">
-        <v>0.37214314747169</v>
+        <v>0.372149777765683</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.33456569030956</v>
+        <v>-0.334568026507619</v>
       </c>
       <c r="H5" t="n">
-        <v>0.483992054604356</v>
+        <v>0.48399523898026</v>
       </c>
       <c r="I5" t="n">
-        <v>0.131617159877805</v>
+        <v>0.131618100239148</v>
       </c>
       <c r="J5" t="n">
-        <v>0.147771131891525</v>
+        <v>0.147768609224867</v>
       </c>
       <c r="K5" t="n">
-        <v>0.146687276952474</v>
+        <v>0.146689892319001</v>
       </c>
       <c r="L5" t="n">
-        <v>0.245028656884146</v>
+        <v>0.244664757530021</v>
       </c>
       <c r="M5" t="n">
-        <v>0.304380047804828</v>
+        <v>0.304398467757571</v>
       </c>
       <c r="N5" t="n">
-        <v>0.256507064458369</v>
+        <v>0.256115257409674</v>
       </c>
       <c r="O5" t="n">
-        <v>0.943109814253564</v>
+        <v>0.943126495370241</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.0396072064847149</v>
+        <v>-0.0396321939023647</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.235276393990954</v>
+        <v>0.23531482170053</v>
       </c>
       <c r="R5" t="s">
         <v>194</v>
@@ -8965,52 +8962,52 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>0.33767925905064</v>
+        <v>0.414800317143152</v>
       </c>
       <c r="C6" t="n">
-        <v>0.394553438640306</v>
+        <v>0.463023285846601</v>
       </c>
       <c r="D6" t="n">
-        <v>0.385790015494479</v>
+        <v>0.41297276249936</v>
       </c>
       <c r="E6" t="n">
-        <v>0.37214314747169</v>
+        <v>0.372149777765683</v>
       </c>
       <c r="F6" t="n">
-        <v>1.81232989524045</v>
+        <v>1.81232799588922</v>
       </c>
       <c r="G6" t="n">
-        <v>0.298337314853466</v>
+        <v>0.298334230355144</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.352828510539754</v>
+        <v>-0.352827111293724</v>
       </c>
       <c r="I6" t="n">
-        <v>0.108165826147614</v>
+        <v>0.108161129780011</v>
       </c>
       <c r="J6" t="n">
-        <v>0.121441509425172</v>
+        <v>0.121433295958095</v>
       </c>
       <c r="K6" t="n">
-        <v>0.120550774014869</v>
+        <v>0.120546827918826</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0414495684857462</v>
+        <v>0.0416654406293419</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0514895759443605</v>
+        <v>0.0518378552516274</v>
       </c>
       <c r="N6" t="n">
-        <v>0.043391280312049</v>
+        <v>0.0436154154754472</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.353392575106216</v>
+        <v>-0.353383403092606</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.0207295035363629</v>
+        <v>-0.0207289306682076</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.317675423474464</v>
+        <v>0.317668751423859</v>
       </c>
       <c r="R6" t="s">
         <v>195</v>
@@ -9021,52 +9018,52 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>0.226469749540417</v>
+        <v>0.264759153621752</v>
       </c>
       <c r="C7" t="n">
-        <v>0.264613286230234</v>
+        <v>0.295538957424668</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25873596272943</v>
+        <v>0.263592660249664</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.33456569030956</v>
+        <v>-0.334568026507619</v>
       </c>
       <c r="F7" t="n">
-        <v>0.298337314853466</v>
+        <v>0.298334230355144</v>
       </c>
       <c r="G7" t="n">
-        <v>0.645007342220688</v>
+        <v>0.645007619294401</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0941463795052598</v>
+        <v>0.0941469733465966</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0429926980076184</v>
+        <v>-0.0429903153772496</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.0482693871646716</v>
+        <v>-0.0482655432793208</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0479153463380656</v>
+        <v>-0.0479132028344906</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.045793900862383</v>
+        <v>-0.045735018636328</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0568862022545068</v>
+        <v>-0.0569010009300337</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.0479391236505915</v>
+        <v>-0.0478754528806305</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.354867561444081</v>
+        <v>-0.354868715600983</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0073781294168757</v>
+        <v>0.00738301796666241</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0147060772644887</v>
+        <v>0.0146990574900948</v>
       </c>
       <c r="R7" t="s">
         <v>196</v>
@@ -9077,52 +9074,52 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.207874312314405</v>
+        <v>-0.263801985673783</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.242885882180693</v>
+        <v>-0.294470513091191</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.23749114587062</v>
+        <v>-0.262639709455481</v>
       </c>
       <c r="E8" t="n">
-        <v>0.483992054604356</v>
+        <v>0.48399523898026</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.352828510539754</v>
+        <v>-0.352827111293724</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0941463795052598</v>
+        <v>0.0941469733465966</v>
       </c>
       <c r="H8" t="n">
-        <v>1.12044716490444</v>
+        <v>1.12044884356973</v>
       </c>
       <c r="I8" t="n">
-        <v>0.034066361875372</v>
+        <v>0.0340739798738834</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0382474812435069</v>
+        <v>0.0382551078276561</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0379669479558383</v>
+        <v>0.0379758439720518</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0863072543951775</v>
+        <v>0.0861092788441707</v>
       </c>
       <c r="M8" t="n">
-        <v>0.107212791159887</v>
+        <v>0.107132440342001</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0903503318668398</v>
+        <v>0.0901392596922347</v>
       </c>
       <c r="O8" t="n">
-        <v>0.409431742089373</v>
+        <v>0.409434801699186</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0153207712289617</v>
+        <v>0.0153118027700882</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0695484668481174</v>
+        <v>0.0695671148857224</v>
       </c>
       <c r="R8" t="s">
         <v>197</v>
@@ -9133,46 +9130,46 @@
         <v>33</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0569235923974705</v>
+        <v>0.0401946920882478</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0665110412268852</v>
+        <v>0.0448675606915459</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0650337650430825</v>
+        <v>0.0400175996581176</v>
       </c>
       <c r="E9" t="n">
-        <v>0.131617159877805</v>
+        <v>0.131618100239148</v>
       </c>
       <c r="F9" t="n">
-        <v>0.108165826147614</v>
+        <v>0.108161129780011</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0429926980076184</v>
+        <v>-0.0429903153772496</v>
       </c>
       <c r="H9" t="n">
-        <v>0.034066361875372</v>
+        <v>0.0340739798738834</v>
       </c>
       <c r="I9" t="n">
-        <v>2.12472386823046</v>
+        <v>2.12472499575566</v>
       </c>
       <c r="J9" t="n">
-        <v>1.72073072853527</v>
+        <v>1.72071204255981</v>
       </c>
       <c r="K9" t="n">
-        <v>1.70810970794061</v>
+        <v>1.70815077409979</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.177143919997095</v>
+        <v>-0.176856577880463</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.22005211766942</v>
+        <v>-0.220035250941504</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.185442255950442</v>
+        <v>-0.185133602508694</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.113328347478763</v>
+        <v>-0.113287555796324</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -9189,46 +9186,46 @@
         <v>35</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0639100835158234</v>
+        <v>0.0451268764502005</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0746742434991417</v>
+        <v>0.0503731404013233</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0730156544975284</v>
+        <v>0.0449280534763311</v>
       </c>
       <c r="E10" t="n">
-        <v>0.147771131891525</v>
+        <v>0.147768609224867</v>
       </c>
       <c r="F10" t="n">
-        <v>0.121441509425172</v>
+        <v>0.121433295958095</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0482693871646716</v>
+        <v>-0.0482655432793208</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0382474812435069</v>
+        <v>0.0382551078276561</v>
       </c>
       <c r="I10" t="n">
-        <v>1.72073072853527</v>
+        <v>1.72071204255981</v>
       </c>
       <c r="J10" t="n">
-        <v>2.15809075050639</v>
+        <v>2.15809207459202</v>
       </c>
       <c r="K10" t="n">
-        <v>1.91775377292463</v>
+        <v>1.91775343798824</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.198885598123946</v>
+        <v>-0.198558180813889</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.247060113843261</v>
+        <v>-0.247035194650224</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.208202426551035</v>
+        <v>-0.207850857243737</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.127237650454398</v>
+        <v>-0.127188772152845</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -9245,46 +9242,46 @@
         <v>37</v>
       </c>
       <c r="B11" t="n">
-        <v>0.063441323083477</v>
+        <v>0.0447974484019085</v>
       </c>
       <c r="C11" t="n">
-        <v>0.074126531326944</v>
+        <v>0.0500054144110909</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0724801075558343</v>
+        <v>0.0446000768439001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.146687276952474</v>
+        <v>0.146689892319001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.120550774014869</v>
+        <v>0.120546827918826</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0479153463380656</v>
+        <v>-0.0479132028344906</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0379669479558383</v>
+        <v>0.0379758439720518</v>
       </c>
       <c r="I11" t="n">
-        <v>1.70810970794061</v>
+        <v>1.70815077409979</v>
       </c>
       <c r="J11" t="n">
-        <v>1.91775377292463</v>
+        <v>1.91775343798823</v>
       </c>
       <c r="K11" t="n">
-        <v>2.25104979735822</v>
+        <v>2.25105104996244</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.197426834595012</v>
+        <v>-0.197108697953046</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.245248005340038</v>
+        <v>-0.245231827600815</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.206675327005602</v>
+        <v>-0.206333537463956</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.126304402166231</v>
+        <v>-0.126260288901379</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -9301,46 +9298,46 @@
         <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.287125670300519</v>
+        <v>-0.261424231939793</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.335485279307557</v>
+        <v>-0.29181633154565</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.328033818557652</v>
+        <v>-0.260272431785994</v>
       </c>
       <c r="E12" t="n">
-        <v>0.245028656884146</v>
+        <v>0.244664757530021</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0414495684857462</v>
+        <v>0.0416654406293419</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.045793900862383</v>
+        <v>-0.045735018636328</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0863072543951775</v>
+        <v>0.0861092788441707</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.177143919997095</v>
+        <v>-0.176856577880463</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.198885598123946</v>
+        <v>-0.198558180813889</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.197426834595012</v>
+        <v>-0.197108697953046</v>
       </c>
       <c r="L12" t="n">
-        <v>1.27989175311404</v>
+        <v>1.2798918069423</v>
       </c>
       <c r="M12" t="n">
-        <v>1.00130773524083</v>
+        <v>1.00138526153414</v>
       </c>
       <c r="N12" t="n">
-        <v>0.843821760455121</v>
+        <v>0.842547092675669</v>
       </c>
       <c r="O12" t="n">
-        <v>0.272326554806022</v>
+        <v>0.271660039837034</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -9357,46 +9354,46 @@
         <v>42</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.356673894243265</v>
+        <v>-0.325249686307635</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.416747276224641</v>
+        <v>-0.36306186917105</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.407490905936719</v>
+        <v>-0.323816679749932</v>
       </c>
       <c r="E13" t="n">
-        <v>0.304380047804828</v>
+        <v>0.304398467757571</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0514895759443605</v>
+        <v>0.0518378552516274</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0568862022545068</v>
+        <v>-0.0569010009300337</v>
       </c>
       <c r="H13" t="n">
-        <v>0.107212791159887</v>
+        <v>0.107132440342001</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.22005211766942</v>
+        <v>-0.220035250941504</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.247060113843261</v>
+        <v>-0.247035194650224</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.245248005340038</v>
+        <v>-0.245231827600815</v>
       </c>
       <c r="L13" t="n">
-        <v>1.00130773524083</v>
+        <v>1.00138526153414</v>
       </c>
       <c r="M13" t="n">
-        <v>1.28994054873515</v>
+        <v>1.28994062818587</v>
       </c>
       <c r="N13" t="n">
-        <v>1.04821416014015</v>
+        <v>1.04825086625972</v>
       </c>
       <c r="O13" t="n">
-        <v>0.338290103796198</v>
+        <v>0.337984516904553</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -9413,46 +9410,46 @@
         <v>44</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.300576119364889</v>
+        <v>-0.273659088183842</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.351201142178505</v>
+        <v>-0.305473561556941</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.343400616529015</v>
+        <v>-0.272453382892027</v>
       </c>
       <c r="E14" t="n">
-        <v>0.256507064458369</v>
+        <v>0.256115257409674</v>
       </c>
       <c r="F14" t="n">
-        <v>0.043391280312049</v>
+        <v>0.0436154154754472</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0479391236505915</v>
+        <v>-0.0478754528806305</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0903503318668398</v>
+        <v>0.0901392596922347</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.185442255950442</v>
+        <v>-0.185133602508694</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.208202426551035</v>
+        <v>-0.207850857243736</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.206675327005602</v>
+        <v>-0.206333537463956</v>
       </c>
       <c r="L14" t="n">
-        <v>0.843821760455121</v>
+        <v>0.842547092675669</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04821416014015</v>
+        <v>1.04825086625972</v>
       </c>
       <c r="N14" t="n">
-        <v>1.34982108725522</v>
+        <v>1.34982140215151</v>
       </c>
       <c r="O14" t="n">
-        <v>0.285083736880547</v>
+        <v>0.284373939807195</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9469,52 +9466,52 @@
         <v>80</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.37650221172058</v>
+        <v>-0.436026671457826</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.439915210391285</v>
+        <v>-0.486717328293373</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.430144257310176</v>
+        <v>-0.434105596339736</v>
       </c>
       <c r="E15" t="n">
-        <v>0.943109814253564</v>
+        <v>0.943126495370241</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.353392575106216</v>
+        <v>-0.353383403092606</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.354867561444081</v>
+        <v>-0.354868715600983</v>
       </c>
       <c r="H15" t="n">
-        <v>0.409431742089373</v>
+        <v>0.409434801699186</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.113328347478763</v>
+        <v>-0.113287555796324</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.127237650454398</v>
+        <v>-0.127188772152845</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.126304402166231</v>
+        <v>-0.126260288901379</v>
       </c>
       <c r="L15" t="n">
-        <v>0.272326554806022</v>
+        <v>0.271660039837034</v>
       </c>
       <c r="M15" t="n">
-        <v>0.338290103796198</v>
+        <v>0.337984516904553</v>
       </c>
       <c r="N15" t="n">
-        <v>0.285083736880547</v>
+        <v>0.284373939807195</v>
       </c>
       <c r="O15" t="n">
-        <v>3.00422965688939</v>
+        <v>3.00424134078891</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.0501748387566618</v>
+        <v>-0.0502047458826524</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.108536750213182</v>
+        <v>0.108584228938789</v>
       </c>
       <c r="R15" t="s">
         <v>204</v>
@@ -9525,25 +9522,25 @@
         <v>49</v>
       </c>
       <c r="B16" t="n">
-        <v>0.147696510420945</v>
+        <v>0.157815713786661</v>
       </c>
       <c r="C16" t="n">
-        <v>0.172572535919414</v>
+        <v>0.176162715735119</v>
       </c>
       <c r="D16" t="n">
-        <v>0.168739528758655</v>
+        <v>0.157120398887722</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0396072064847149</v>
+        <v>-0.0396321939023647</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0207295035363629</v>
+        <v>-0.0207289306682076</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0073781294168757</v>
+        <v>0.00738301796666241</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0153207712289617</v>
+        <v>0.0153118027700882</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -9564,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.0501748387566618</v>
+        <v>-0.0502047458826524</v>
       </c>
       <c r="P16" t="n">
         <v>0.25</v>
@@ -9581,25 +9578,25 @@
         <v>51</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0161609651397317</v>
+        <v>-0.0121629643227846</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0188829020341786</v>
+        <v>-0.0135769802327011</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0184634940540658</v>
+        <v>-0.0121093759309447</v>
       </c>
       <c r="E17" t="n">
-        <v>0.235276393990954</v>
+        <v>0.23531482170053</v>
       </c>
       <c r="F17" t="n">
-        <v>0.317675423474464</v>
+        <v>0.317668751423859</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0147060772644887</v>
+        <v>0.0146990574900948</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0695484668481174</v>
+        <v>0.0695671148857224</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -9620,13 +9617,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0.108536750213182</v>
+        <v>0.108584228938789</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.03326315549605</v>
+        <v>2.03326144329911</v>
       </c>
       <c r="R17" t="s">
         <v>206</v>
@@ -9713,52 +9710,52 @@
         <v>208</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00818680154268936</v>
+        <v>0.00869727849200386</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0391378837481859</v>
+        <v>-0.00626955917427452</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0123957795158103</v>
+        <v>0.0428983971142909</v>
       </c>
       <c r="F2" t="n">
-        <v>0.152596295729856</v>
+        <v>0.0276266963517486</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0376722564947079</v>
+        <v>-0.124841982350953</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0404468511825162</v>
+        <v>-0.0363882982595449</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0702565818427826</v>
+        <v>0.0632487837550826</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0693412442679144</v>
+        <v>0.0395206540130795</v>
       </c>
       <c r="K2" t="n">
-        <v>0.10612072773028</v>
+        <v>0.016784471191692</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0724870407693285</v>
+        <v>-0.0444735801900116</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.155313319930916</v>
+        <v>0.0147942119825074</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0994025736675236</v>
+        <v>-0.0812136728184459</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.150432248689451</v>
+        <v>-0.144542305324788</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.172541939394578</v>
+        <v>-0.200636960767936</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.030832605095501</v>
+        <v>0.0359712684618599</v>
       </c>
       <c r="R2" t="n">
-        <v>0.14778637563965</v>
+        <v>-0.0616964943796431</v>
       </c>
       <c r="S2" t="s">
         <v>209</v>
@@ -9772,52 +9769,52 @@
         <v>208</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0391378837481859</v>
+        <v>-0.00626955917427452</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0111765270792015</v>
+        <v>0.010837254944859</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00376491643155985</v>
+        <v>0.00831445279699405</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0155433626482133</v>
+        <v>-0.0717744831832524</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.104595103848108</v>
+        <v>0.0554459554264624</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0362424308680266</v>
+        <v>0.0351217337276026</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0423326802619927</v>
+        <v>-0.0435953809601374</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0132043048744421</v>
+        <v>-0.00139044154305822</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0127628958572493</v>
+        <v>0.0294122312593321</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0738026631150471</v>
+        <v>-0.110691314764724</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0888552593502713</v>
+        <v>0.0320565192141475</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0102839170985604</v>
+        <v>-0.0327050857675047</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.0670002513301245</v>
+        <v>-0.104097181764371</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.196748421834477</v>
+        <v>-0.291047805980636</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0212144463291067</v>
+        <v>0.00874852686843103</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0927423607366063</v>
+        <v>-0.0176194064484389</v>
       </c>
       <c r="S3" t="s">
         <v>210</v>
@@ -9831,52 +9828,52 @@
         <v>208</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0123957795158103</v>
+        <v>0.0428983971142909</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00376491643155985</v>
+        <v>0.00831445279699405</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0106845013217343</v>
+        <v>0.00862077141322048</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.139970746428452</v>
+        <v>0.0851093397298593</v>
       </c>
       <c r="G4" t="n">
-        <v>0.132679225778585</v>
+        <v>-0.0474218364113393</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0719247284228403</v>
+        <v>-0.0393358064980444</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.100574748180709</v>
+        <v>0.0348990841272365</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.0215566458945948</v>
+        <v>0.0552959397837788</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00676971716312696</v>
+        <v>0.0247386248612628</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.133166007909467</v>
+        <v>-0.054097293327918</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0682740062261493</v>
+        <v>0.127346413789423</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0117239509981638</v>
+        <v>0.0570893242651798</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.0661701267922971</v>
+        <v>-0.0429154767417392</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.347620876963833</v>
+        <v>-0.0942284956038239</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0161717138448954</v>
+        <v>-0.0136292746273672</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.0496598807352058</v>
+        <v>-0.0135199787835267</v>
       </c>
       <c r="S4" t="s">
         <v>211</v>
@@ -9890,52 +9887,52 @@
         <v>208</v>
       </c>
       <c r="C5" t="n">
-        <v>0.152596295729856</v>
+        <v>0.0276266963517486</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0155433626482133</v>
+        <v>-0.0717744831832524</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.139970746428452</v>
+        <v>0.0851093397298593</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00890735191640823</v>
+        <v>0.0088910906975217</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00697523073635486</v>
+        <v>0.00696860044236219</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0011018283347452</v>
+        <v>-0.00109949213668598</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00154766739417384</v>
+        <v>0.00154448301826948</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.0675612794814593</v>
+        <v>-0.0675622198428025</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0185745842948831</v>
+        <v>0.0185771069615407</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0711447317306956</v>
+        <v>0.0711421163641685</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0724331595276122</v>
+        <v>-0.0720692601734869</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00558809056567722</v>
+        <v>0.00556967061293379</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0971920357131936</v>
+        <v>0.0975838427618881</v>
       </c>
       <c r="P5" t="n">
-        <v>0.00477366321571249</v>
+        <v>0.00475698209903519</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.0106886515034508</v>
+        <v>-0.010663664085801</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0275995557306935</v>
+        <v>0.0275611280211173</v>
       </c>
       <c r="S5" t="s">
         <v>212</v>
@@ -9949,52 +9946,52 @@
         <v>208</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0376722564947079</v>
+        <v>-0.124841982350953</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.104595103848108</v>
+        <v>0.0554459554264624</v>
       </c>
       <c r="E6" t="n">
-        <v>0.132679225778585</v>
+        <v>-0.0474218364113392</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00697523073635498</v>
+        <v>0.00696860044236225</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00483336935112333</v>
+        <v>0.00483526870235074</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.00118385384019626</v>
+        <v>-0.00118076934187394</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00147526660571817</v>
+        <v>0.00147386735968824</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0489015034276806</v>
+        <v>0.0489061997952832</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0515916476771703</v>
+        <v>0.0515998611442475</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0237404382423123</v>
+        <v>-0.0237364921462687</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0481720221813454</v>
+        <v>-0.0483878943249411</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0133715983842693</v>
+        <v>0.0130233190770024</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.0314694288362608</v>
+        <v>-0.031693563999659</v>
       </c>
       <c r="P6" t="n">
-        <v>0.00268706759597481</v>
+        <v>0.00267789558236436</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.00589771539854838</v>
+        <v>-0.0058982882667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0142982469152278</v>
+        <v>0.0143049189658324</v>
       </c>
       <c r="S6" t="s">
         <v>213</v>
@@ -10008,52 +10005,52 @@
         <v>208</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0404468511825162</v>
+        <v>-0.0363882982595449</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0362424308680266</v>
+        <v>0.0351217337276027</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0719247284228403</v>
+        <v>-0.0393358064980444</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0011018283347452</v>
+        <v>-0.00109949213668598</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.00118385384019626</v>
+        <v>-0.00118076934187389</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.00000191523983972264</v>
+        <v>-0.00000219231355313987</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.000172078885533652</v>
+        <v>-0.000172672726870424</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0336442858371764</v>
+        <v>0.0336419032068077</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0123027216550477</v>
+        <v>-0.0123065655403985</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00383425674036272</v>
+        <v>0.00383211323678777</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0377759743191947</v>
+        <v>0.0377170920931397</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.000692313903890913</v>
+        <v>-0.000677515228363963</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.0350586705442897</v>
+        <v>-0.0351223413142507</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.000844773558194845</v>
+        <v>-0.000843619401293072</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0014976102280947</v>
+        <v>0.00149272167830799</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.00693324017895254</v>
+        <v>-0.00692622040455866</v>
       </c>
       <c r="S7" t="s">
         <v>214</v>
@@ -10067,52 +10064,52 @@
         <v>208</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0702565818427826</v>
+        <v>0.0632487837550826</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0423326802619927</v>
+        <v>-0.0435953809601375</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.100574748180709</v>
+        <v>0.0348990841272364</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00154766739417384</v>
+        <v>0.00154448301826943</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00147526660571817</v>
+        <v>0.00147386735968824</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.000172078885533639</v>
+        <v>-0.000172672726870424</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0000668227010407474</v>
+        <v>0.0000651440357413158</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0345586862672001</v>
+        <v>0.0345510682686886</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0368644764467558</v>
+        <v>-0.036872103030905</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0537140155958581</v>
+        <v>0.0537051195796446</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0147061199811165</v>
+        <v>-0.0145081444301097</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.00297974609843964</v>
+        <v>-0.0028993952805533</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0400197532142147</v>
+        <v>0.0402308253888198</v>
       </c>
       <c r="P8" t="n">
-        <v>0.000672946121823836</v>
+        <v>0.000669886512011053</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.00348645170233445</v>
+        <v>-0.00347748324346095</v>
       </c>
       <c r="R8" t="n">
-        <v>0.00576402221038905</v>
+        <v>0.00574537417278403</v>
       </c>
       <c r="S8" t="s">
         <v>215</v>
@@ -10126,46 +10123,46 @@
         <v>208</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0693412442679144</v>
+        <v>0.0395206540130795</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0132043048744421</v>
+        <v>-0.00139044154305822</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0215566458945948</v>
+        <v>0.0552959397837788</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0675612794814593</v>
+        <v>-0.0675622198428025</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0489015034276806</v>
+        <v>0.0489061997952832</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0336442858371764</v>
+        <v>0.0336419032068077</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0345586862672001</v>
+        <v>0.0345510682686886</v>
       </c>
       <c r="J9" t="n">
-        <v>0.000000406129685881496</v>
+        <v>-0.000000721395516656287</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.00211968550456443</v>
+        <v>-0.00210099952910281</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000890327072171182</v>
+        <v>0.000849260912986871</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0814779769953073</v>
+        <v>-0.0817653191119393</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0692059615294867</v>
+        <v>-0.0692228282574033</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.0787029070340454</v>
+        <v>-0.0790115604757937</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.069762230582225</v>
+        <v>-0.0698030222646636</v>
       </c>
       <c r="Q9" t="n">
         <v>-0.0221893491124256</v>
@@ -10185,46 +10182,46 @@
         <v>208</v>
       </c>
       <c r="C10" t="n">
-        <v>0.10612072773028</v>
+        <v>0.016784471191692</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0127628958572493</v>
+        <v>0.0294122312593321</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00676971716312696</v>
+        <v>0.0247386248612628</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0185745842948831</v>
+        <v>0.0185771069615407</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0515916476771703</v>
+        <v>0.0515998611442475</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.0123027216550477</v>
+        <v>-0.0123065655403985</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0368644764467558</v>
+        <v>-0.036872103030905</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.00211968550456443</v>
+        <v>-0.00210099952910281</v>
       </c>
       <c r="K10" t="n">
-        <v>0.000000702874093594374</v>
+        <v>-0.000000621211530660304</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000815254770475615</v>
+        <v>0.000815589706874897</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0425275176633158</v>
+        <v>-0.0428549349733733</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.00601225757230514</v>
+        <v>-0.00603717676534252</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0118420049971696</v>
+        <v>0.0114904356898706</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0199322339773864</v>
+        <v>0.0198833556758334</v>
       </c>
       <c r="Q10" t="n">
         <v>-0.0162721893491122</v>
@@ -10244,46 +10241,46 @@
         <v>208</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0724870407693285</v>
+        <v>-0.0444735801900116</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0738026631150471</v>
+        <v>-0.110691314764724</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.133166007909467</v>
+        <v>-0.054097293327918</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0711447317306956</v>
+        <v>0.0711421163641685</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0237404382423123</v>
+        <v>-0.0237364921462687</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00383425674036272</v>
+        <v>0.00383211323678777</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0537140155958581</v>
+        <v>0.0537051195796446</v>
       </c>
       <c r="J11" t="n">
-        <v>0.000890327072171182</v>
+        <v>0.000849260912986871</v>
       </c>
       <c r="K11" t="n">
-        <v>0.000815254770475837</v>
+        <v>0.00081558970687512</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000000586031716487412</v>
+        <v>-0.000000666572501639706</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.000903055814989201</v>
+        <v>-0.00122119245695476</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0502093162185084</v>
+        <v>0.0501931384792846</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0721999935088767</v>
+        <v>0.0718582039672301</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0406193771320964</v>
+        <v>0.0405752638672446</v>
       </c>
       <c r="Q11" t="n">
         <v>-0.00147928994082847</v>
@@ -10303,46 +10300,46 @@
         <v>208</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.155313319930916</v>
+        <v>0.0147942119825074</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0888552593502713</v>
+        <v>0.0320565192141475</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0682740062261493</v>
+        <v>0.127346413789423</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0724331595276122</v>
+        <v>-0.0720692601734869</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0481720221813454</v>
+        <v>-0.0483878943249411</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0377759743191947</v>
+        <v>0.0377170920931397</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0147061199811165</v>
+        <v>-0.0145081444301097</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.0814779769953073</v>
+        <v>-0.0817653191119393</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0425275176633158</v>
+        <v>-0.0428549349733733</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.000903055814989201</v>
+        <v>-0.00122119245695476</v>
       </c>
       <c r="M12" t="n">
-        <v>0.000000407524588297292</v>
+        <v>0.000000353696330002151</v>
       </c>
       <c r="N12" t="n">
-        <v>0.000740512369543866</v>
+        <v>0.000662986076238603</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.0000487833184654729</v>
+        <v>0.00122588446098704</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.0804740286339672</v>
+        <v>-0.0798075136649794</v>
       </c>
       <c r="Q12" t="n">
         <v>-0.0355029585798816</v>
@@ -10362,46 +10359,46 @@
         <v>208</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0994025736675236</v>
+        <v>-0.0812136728184459</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0102839170985604</v>
+        <v>-0.0327050857675047</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0117239509981639</v>
+        <v>0.0570893242651798</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00558809056567722</v>
+        <v>0.00556967061293379</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0133715983842693</v>
+        <v>0.0130233190770024</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.000692313903890913</v>
+        <v>-0.000677515228363963</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.00297974609843964</v>
+        <v>-0.00289939528055332</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0692059615294867</v>
+        <v>-0.0692228282574033</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.00601225757230514</v>
+        <v>-0.00603717676534252</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0502093162185084</v>
+        <v>0.0501931384792847</v>
       </c>
       <c r="M13" t="n">
-        <v>0.000740512369543866</v>
+        <v>0.000662986076238603</v>
       </c>
       <c r="N13" t="n">
-        <v>0.000000279667213831658</v>
+        <v>0.000000200216492718397</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.000649298965818446</v>
+        <v>-0.000686005085395403</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0049051624759916</v>
+        <v>0.00521074936763649</v>
       </c>
       <c r="Q13" t="n">
         <v>-0.0236686390532546</v>
@@ -10421,46 +10418,46 @@
         <v>208</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.150432248689451</v>
+        <v>-0.144542305324788</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0670002513301245</v>
+        <v>-0.104097181764371</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0661701267922971</v>
+        <v>-0.0429154767417392</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0971920357131936</v>
+        <v>0.0975838427618882</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0314694288362608</v>
+        <v>-0.031693563999659</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0350586705442897</v>
+        <v>-0.0351223413142507</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0400197532142147</v>
+        <v>0.0402308253888198</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.0787029070340454</v>
+        <v>-0.0790115604757937</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0118420049971696</v>
+        <v>0.0114904356898706</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0721999935088767</v>
+        <v>0.0718582039672301</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.0000487833184654729</v>
+        <v>0.00122588446098704</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.000649298965818446</v>
+        <v>-0.000686005085395403</v>
       </c>
       <c r="O14" t="n">
-        <v>0.000000347568495540074</v>
+        <v>0.0000000326721960597354</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0907696996237771</v>
+        <v>0.0914794966971281</v>
       </c>
       <c r="Q14" t="n">
         <v>-0.0340236686390534</v>
@@ -10480,52 +10477,52 @@
         <v>208</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.172541939394578</v>
+        <v>-0.200636960767936</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.196748421834477</v>
+        <v>-0.291047805980636</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.347620876963833</v>
+        <v>-0.094228495603824</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00477366321571249</v>
+        <v>0.00475698209903519</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00268706759597481</v>
+        <v>0.00267789558236431</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.000844773558194845</v>
+        <v>-0.000843619401293016</v>
       </c>
       <c r="I15" t="n">
-        <v>0.000672946121823836</v>
+        <v>0.000669886512011109</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.069762230582225</v>
+        <v>-0.0698030222646636</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0199322339773864</v>
+        <v>0.0198833556758334</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0406193771320964</v>
+        <v>0.0405752638672446</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0804740286339672</v>
+        <v>-0.0798075136649794</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0049051624759916</v>
+        <v>0.00521074936763649</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0907696996237771</v>
+        <v>0.0914794966971281</v>
       </c>
       <c r="P15" t="n">
-        <v>0.00316679281475807</v>
+        <v>0.00315510891523374</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.00751746893564593</v>
+        <v>-0.00748756180965532</v>
       </c>
       <c r="R15" t="n">
-        <v>0.00616511596797552</v>
+        <v>0.00611763724236848</v>
       </c>
       <c r="S15" t="s">
         <v>222</v>
@@ -10539,25 +10536,25 @@
         <v>208</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.030832605095501</v>
+        <v>0.0359712684618599</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0212144463291067</v>
+        <v>0.00874852686843103</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0161717138448954</v>
+        <v>-0.0136292746273672</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0106886515034508</v>
+        <v>-0.010663664085801</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.00589771539854838</v>
+        <v>-0.0058982882667037</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0014976102280947</v>
+        <v>0.00149272167830799</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.00348645170233445</v>
+        <v>-0.00347748324346095</v>
       </c>
       <c r="J16" t="n">
         <v>-0.0221893491124256</v>
@@ -10578,7 +10575,7 @@
         <v>-0.0340236686390534</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.00751746893564593</v>
+        <v>-0.00748756180965532</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -10598,25 +10595,25 @@
         <v>208</v>
       </c>
       <c r="C17" t="n">
-        <v>0.14778637563965</v>
+        <v>-0.0616964943796431</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0927423607366063</v>
+        <v>-0.0176194064484389</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0496598807352058</v>
+        <v>-0.0135199787835267</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0275995557306935</v>
+        <v>0.0275611280211173</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0142982469152278</v>
+        <v>0.0143049189658324</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.00693324017895254</v>
+        <v>-0.00692622040455866</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00576402221038905</v>
+        <v>0.00574537417278403</v>
       </c>
       <c r="J17" t="n">
         <v>0.182048947865972</v>
@@ -10637,13 +10634,13 @@
         <v>0.133661286369525</v>
       </c>
       <c r="P17" t="n">
-        <v>0.00616511596797552</v>
+        <v>0.00611763724236848</v>
       </c>
       <c r="Q17" t="n">
         <v>-0.0236686390532546</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.00000101481470471398</v>
+        <v>0.000000697382241288125</v>
       </c>
       <c r="S17" t="s">
         <v>224</v>
@@ -10756,20 +10753,20 @@
         <v>242</v>
       </c>
       <c r="B12" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B13" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B14" t="s">
         <v>241</v>
@@ -10777,39 +10774,39 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B16" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B17" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B18" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B19" t="s">
         <v>239</v>
@@ -10817,146 +10814,146 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B20" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B21" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B22" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B23" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B24" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B33" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B34" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s">
-        <v>287</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38">
@@ -10972,143 +10969,143 @@
         <v>290</v>
       </c>
       <c r="B39" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>291</v>
+      </c>
+      <c r="B40" t="s">
         <v>292</v>
-      </c>
-      <c r="B40" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>293</v>
+      </c>
+      <c r="B41" t="s">
         <v>294</v>
-      </c>
-      <c r="B41" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>295</v>
+      </c>
+      <c r="B42" t="s">
         <v>296</v>
-      </c>
-      <c r="B42" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>297</v>
+      </c>
+      <c r="B43" t="s">
         <v>298</v>
-      </c>
-      <c r="B43" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>300</v>
+      </c>
+      <c r="B45" t="s">
         <v>301</v>
-      </c>
-      <c r="B45" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>302</v>
+      </c>
+      <c r="B46" t="s">
         <v>303</v>
-      </c>
-      <c r="B46" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>304</v>
+      </c>
+      <c r="B47" t="s">
         <v>305</v>
-      </c>
-      <c r="B47" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>306</v>
+      </c>
+      <c r="B48" t="s">
         <v>307</v>
-      </c>
-      <c r="B48" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>308</v>
+      </c>
+      <c r="B49" t="s">
         <v>309</v>
-      </c>
-      <c r="B49" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>310</v>
+      </c>
+      <c r="B50" t="s">
         <v>311</v>
-      </c>
-      <c r="B50" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>312</v>
+      </c>
+      <c r="B51" t="s">
         <v>313</v>
-      </c>
-      <c r="B51" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>314</v>
+      </c>
+      <c r="B52" t="s">
         <v>315</v>
-      </c>
-      <c r="B52" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>316</v>
+      </c>
+      <c r="B53" t="s">
         <v>317</v>
-      </c>
-      <c r="B53" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>318</v>
+      </c>
+      <c r="B54" t="s">
         <v>319</v>
-      </c>
-      <c r="B54" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>320</v>
+      </c>
+      <c r="B55" t="s">
         <v>321</v>
-      </c>
-      <c r="B55" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>322</v>
+      </c>
+      <c r="B56" t="s">
         <v>323</v>
-      </c>
-      <c r="B56" t="s">
-        <v>324</v>
       </c>
     </row>
   </sheetData>
